--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="137">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -206,33 +206,6 @@
     <t>construct injected</t>
   </si>
   <si>
-    <t>1263, 2100</t>
-  </si>
-  <si>
-    <t>1283, 2100</t>
-  </si>
-  <si>
-    <t>1337, 1750</t>
-  </si>
-  <si>
-    <t>1250, 1680</t>
-  </si>
-  <si>
-    <t>1525, 1680</t>
-  </si>
-  <si>
-    <t>1881, 1960</t>
-  </si>
-  <si>
-    <t>1351, 2170</t>
-  </si>
-  <si>
-    <t>1703, 1680</t>
-  </si>
-  <si>
-    <t>injection coordinates (um) [m/l, a/p from CC fusion]</t>
-  </si>
-  <si>
     <t>PM Coordinates</t>
   </si>
   <si>
@@ -299,9 +272,6 @@
     <t>EB_150427_A</t>
   </si>
   <si>
-    <t>EB_150427_B</t>
-  </si>
-  <si>
     <t>slice num</t>
   </si>
   <si>
@@ -321,6 +291,153 @@
   </si>
   <si>
     <t>ml distance</t>
+  </si>
+  <si>
+    <t>910, 954</t>
+  </si>
+  <si>
+    <t>1050, 425</t>
+  </si>
+  <si>
+    <t>910, 1185</t>
+  </si>
+  <si>
+    <t>70, 790</t>
+  </si>
+  <si>
+    <t>770, 867</t>
+  </si>
+  <si>
+    <t>560, 403</t>
+  </si>
+  <si>
+    <t>630, 1150</t>
+  </si>
+  <si>
+    <t>210, 836</t>
+  </si>
+  <si>
+    <t>910, 898</t>
+  </si>
+  <si>
+    <t>490, 420</t>
+  </si>
+  <si>
+    <t>630, 1208</t>
+  </si>
+  <si>
+    <t>280, 880</t>
+  </si>
+  <si>
+    <t>630, 404</t>
+  </si>
+  <si>
+    <t>420, 1100</t>
+  </si>
+  <si>
+    <t>280, 742</t>
+  </si>
+  <si>
+    <t>420, 371</t>
+  </si>
+  <si>
+    <t>350, 1090</t>
+  </si>
+  <si>
+    <t>420, 812</t>
+  </si>
+  <si>
+    <t>700, 370</t>
+  </si>
+  <si>
+    <t>560, 1152</t>
+  </si>
+  <si>
+    <t>280, 802</t>
+  </si>
+  <si>
+    <t>770, 880</t>
+  </si>
+  <si>
+    <t>770, 430</t>
+  </si>
+  <si>
+    <t>630, 880</t>
+  </si>
+  <si>
+    <t>injection coordinates (um) [a/p, m/l from CC fusion]</t>
+  </si>
+  <si>
+    <t>980, 1175</t>
+  </si>
+  <si>
+    <t>280, 830</t>
+  </si>
+  <si>
+    <t>700, 844</t>
+  </si>
+  <si>
+    <t>350, 440</t>
+  </si>
+  <si>
+    <t>560, 1148</t>
+  </si>
+  <si>
+    <t>210, 860</t>
+  </si>
+  <si>
+    <t>140, 462</t>
+  </si>
+  <si>
+    <t>980, 440</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s5_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s6_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s1_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s2_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s1_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s2_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s3_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s4_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s2_ERC_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s3_ERC_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s4_ERC_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s5_ERC_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s2_RL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s3_RL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s4_RL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s5_RL_cropped</t>
   </si>
 </sst>
 </file>
@@ -367,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,6 +516,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
@@ -713,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2723,15 +2849,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -2745,7 +2871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2755,16 +2881,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2773,7 +2899,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2789,7 +2915,7 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2817,7 +2943,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2836,7 +2962,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2854,7 +2980,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2873,7 +2999,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2901,7 +3027,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2920,7 +3046,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2939,7 +3065,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2957,7 +3083,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2981,7 +3107,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2999,7 +3125,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3017,7 +3143,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3036,7 +3162,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3064,7 +3190,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3083,7 +3209,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3102,7 +3228,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3120,7 +3246,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3148,7 +3274,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3167,7 +3293,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3186,7 +3312,7 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3204,7 +3330,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3230,7 +3356,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3248,7 +3374,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3267,7 +3393,7 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3286,7 +3412,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3314,7 +3440,7 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3333,7 +3459,7 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3352,7 +3478,7 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3371,7 +3497,7 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3399,7 +3525,7 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3418,7 +3544,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3437,7 +3563,7 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3456,7 +3582,7 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3484,7 +3610,7 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3503,7 +3629,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3521,7 +3647,7 @@
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3539,7 +3665,7 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3566,7 +3692,7 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3584,7 +3710,7 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3602,7 +3728,7 @@
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3620,7 +3746,7 @@
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3647,7 +3773,7 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3665,7 +3791,7 @@
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3683,7 +3809,7 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3702,7 +3828,7 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3730,7 +3856,7 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3748,7 +3874,7 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3766,7 +3892,7 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3785,7 +3911,7 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3813,7 +3939,7 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3832,7 +3958,7 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3851,7 +3977,7 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3869,7 +3995,7 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3895,7 +4021,7 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3913,7 +4039,7 @@
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3930,6 +4056,182 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,16 +4269,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -4097,11 +4399,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4114,10 +4416,10 @@
     <col min="6" max="6" width="29.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="7" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -4129,7 +4431,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>56</v>
@@ -4141,22 +4443,22 @@
         <v>58</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D2" s="15">
         <v>41856</v>
@@ -4176,16 +4478,16 @@
         <v>41876</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4193,10 +4495,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3" s="17">
         <v>41856</v>
@@ -4205,10 +4507,20 @@
         <v>41878</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4216,10 +4528,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="17">
         <v>41856</v>
@@ -4228,10 +4540,20 @@
         <v>41878</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4239,10 +4561,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5" s="17">
         <v>41856</v>
@@ -4251,21 +4573,28 @@
         <v>41878</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6" s="17">
         <v>42100</v>
@@ -4274,7 +4603,7 @@
         <v>42121</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7">
         <v>100</v>
@@ -4283,37 +4612,43 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="17">
-        <v>42100</v>
+        <v>41857</v>
       </c>
       <c r="E7" s="16">
-        <v>42121</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="7">
+        <v>41885</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="K7" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D8" s="17">
         <v>41857</v>
@@ -4322,21 +4657,28 @@
         <v>41885</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D9" s="17">
         <v>41857</v>
@@ -4345,44 +4687,61 @@
         <v>41885</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D10" s="17">
-        <v>41857</v>
+        <v>41836</v>
       </c>
       <c r="E10" s="16">
-        <v>41885</v>
+        <v>41900</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D11" s="17">
         <v>41836</v>
@@ -4391,19 +4750,31 @@
         <v>41900</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D12" s="17">
         <v>41836</v>
@@ -4412,67 +4783,80 @@
         <v>41900</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="17">
-        <v>41836</v>
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="16">
+        <v>42102</v>
       </c>
       <c r="E13" s="16">
-        <v>41900</v>
+        <v>42135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G13" s="7">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="16">
+        <v>42108</v>
+      </c>
+      <c r="E14" s="16">
+        <v>42167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D14" s="16">
-        <v>42102</v>
-      </c>
-      <c r="E14" s="16">
-        <v>42135</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D15" s="16">
         <v>42108</v>
@@ -4481,21 +4865,21 @@
         <v>42167</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D16" s="16">
         <v>42108</v>
@@ -4504,21 +4888,21 @@
         <v>42167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D17" s="16">
         <v>42108</v>
@@ -4527,33 +4911,10 @@
         <v>42167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="16">
-        <v>42108</v>
-      </c>
-      <c r="E18" s="16">
-        <v>42167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -438,6 +438,42 @@
   </si>
   <si>
     <t>layered_cellFillData_p7s5_RL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s3_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s4_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s5_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s6_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s5_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s6_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s1_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s2_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p7s3_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s3_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s4_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p6s5_AL_cropped</t>
   </si>
 </sst>
 </file>
@@ -2849,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,59 +4093,79 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F58" s="14"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="14"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F60" s="14"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="F61" s="14"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4117,10 +4173,10 @@
         <v>80</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4128,108 +4184,296 @@
         <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -526,7 +526,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -543,7 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -562,6 +560,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +855,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
@@ -874,16 +874,16 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H1" s="2"/>
@@ -929,7 +929,7 @@
         <f>(E3-D3)*70</f>
         <v>280</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>880</v>
       </c>
       <c r="I3" s="4"/>
@@ -948,7 +948,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F67" si="0">(E4-D4)*70</f>
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1014,11 +1014,11 @@
       <c r="E7">
         <v>38</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>404</v>
       </c>
       <c r="I7" s="4"/>
@@ -1037,7 +1037,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1101,11 +1101,11 @@
       <c r="E11">
         <v>38</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1100</v>
       </c>
       <c r="I11" s="4"/>
@@ -1123,7 +1123,7 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1189,11 +1189,11 @@
       <c r="E15">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>742</v>
       </c>
       <c r="I15" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1278,11 +1278,11 @@
       <c r="E19">
         <v>35</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>371</v>
       </c>
       <c r="I19" s="4"/>
@@ -1301,7 +1301,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1365,11 +1365,11 @@
       <c r="E23">
         <v>35</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>1090</v>
       </c>
       <c r="I23" s="4"/>
@@ -1387,7 +1387,7 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1453,11 +1453,11 @@
       <c r="E27">
         <v>35</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>812</v>
       </c>
       <c r="I27" s="4"/>
@@ -1476,7 +1476,7 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1542,11 +1542,11 @@
       <c r="E31">
         <v>35</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>370</v>
       </c>
       <c r="I31" s="4"/>
@@ -1565,7 +1565,7 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1630,11 +1630,11 @@
       <c r="E35">
         <v>35</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>1152</v>
       </c>
       <c r="I35" s="4"/>
@@ -1653,7 +1653,7 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1719,11 +1719,11 @@
       <c r="E39">
         <v>35</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>802</v>
       </c>
       <c r="I39" s="4"/>
@@ -1742,7 +1742,7 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1808,11 +1808,11 @@
       <c r="E43">
         <v>35</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>880</v>
       </c>
       <c r="I43" s="4"/>
@@ -1831,7 +1831,7 @@
       <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1897,11 +1897,11 @@
       <c r="E47">
         <v>35</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>430</v>
       </c>
       <c r="I47" s="4"/>
@@ -1920,7 +1920,7 @@
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1986,11 +1986,11 @@
       <c r="E51">
         <v>35</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>790</v>
       </c>
       <c r="I51" s="4"/>
@@ -2009,7 +2009,7 @@
       <c r="C52" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="C53" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2075,11 +2075,11 @@
       <c r="E55">
         <v>36</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>880</v>
       </c>
       <c r="I55" s="4"/>
@@ -2098,7 +2098,7 @@
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2164,11 +2164,11 @@
       <c r="E59">
         <v>36</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>44</v>
       </c>
       <c r="I59" s="4"/>
@@ -2187,7 +2187,7 @@
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="C61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="C62" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="E63">
         <v>36</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>1175</v>
       </c>
       <c r="I63" s="4"/>
@@ -2275,7 +2275,7 @@
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="C66" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2341,11 +2341,11 @@
       <c r="E67">
         <v>36</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>830</v>
       </c>
       <c r="I67" s="4"/>
@@ -2364,7 +2364,7 @@
       <c r="C68" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <f t="shared" ref="F68:F81" si="1">(E68-D68)*70</f>
         <v>0</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="C69" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2430,11 +2430,11 @@
       <c r="E71">
         <v>32</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>844</v>
       </c>
       <c r="I71" s="4"/>
@@ -2453,7 +2453,7 @@
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="C73" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2519,11 +2519,11 @@
       <c r="E75">
         <v>32</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>440</v>
       </c>
       <c r="I75" s="4"/>
@@ -2542,7 +2542,7 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2608,11 +2608,11 @@
       <c r="E79">
         <v>32</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>1148</v>
       </c>
       <c r="I79" s="4"/>
@@ -2631,7 +2631,7 @@
       <c r="C80" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2887,17 +2887,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="20" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
@@ -2907,7 +2907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2916,13 +2916,13 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="19" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2935,7 +2935,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2943,15 +2943,28 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" s="20">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10">
+        <v>39</v>
+      </c>
+      <c r="F2" s="20">
+        <f>(E2-D2) * 70</f>
+        <v>980</v>
+      </c>
+      <c r="G2" s="10">
+        <v>902</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2960,13 +2973,13 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="20">
         <v>26</v>
       </c>
       <c r="E3">
         <v>39</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="20">
         <f>(E3-D3) * 70</f>
         <v>910</v>
       </c>
@@ -2979,7 +2992,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2988,9 +3001,18 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F57" si="0">(E4-D4) * 70</f>
-        <v>0</v>
+      <c r="D4" s="20">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10">
+        <v>39</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F67" si="0">(E4-D4) * 70</f>
+        <v>840</v>
+      </c>
+      <c r="G4" s="10">
+        <v>902</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2998,7 +3020,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3007,16 +3029,25 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D5" s="20">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10">
+        <v>39</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="G5" s="10">
+        <v>902</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3025,9 +3056,18 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D6" s="20">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10">
+        <v>39</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="G6">
+        <v>390</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3035,7 +3075,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3044,13 +3084,13 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="20">
         <v>24</v>
       </c>
       <c r="E7">
         <v>39</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
@@ -3063,7 +3103,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3072,9 +3112,18 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D8" s="20">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10">
+        <v>39</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="G8" s="10">
+        <v>390</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3082,7 +3131,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3091,9 +3140,18 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D9" s="20">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10">
+        <v>39</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="G9" s="10">
+        <v>390</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -3101,7 +3159,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3110,16 +3168,25 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="20">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1206</v>
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3128,13 +3195,13 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <v>25</v>
       </c>
       <c r="E11">
         <v>39</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
@@ -3143,7 +3210,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3152,16 +3219,25 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="20">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1206</v>
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3170,16 +3246,25 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="20">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10">
+        <v>39</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1206</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3188,9 +3273,18 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="20">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10">
+        <v>33</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="G14" s="10">
+        <v>954</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -3198,7 +3292,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3207,13 +3301,13 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="20">
         <v>20</v>
       </c>
       <c r="E15">
         <v>33</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>910</v>
       </c>
@@ -3226,7 +3320,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3235,9 +3329,18 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D16" s="20">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <v>33</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G16" s="10">
+        <v>954</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3245,7 +3348,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3254,9 +3357,18 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D17" s="20">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10">
+        <v>33</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="G17" s="10">
+        <v>954</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -3264,7 +3376,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3273,16 +3385,25 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D18" s="20">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10">
+        <v>33</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="G18" s="10">
+        <v>425</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3291,13 +3412,13 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19">
         <v>33</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="20">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
@@ -3310,7 +3431,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3319,9 +3440,18 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D20" s="20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="10">
+        <v>33</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="G20" s="10">
+        <v>425</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3329,7 +3459,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3338,9 +3468,18 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D21" s="20">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10">
+        <v>33</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="G21" s="10">
+        <v>425</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -3348,7 +3487,7 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3357,16 +3496,25 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D22" s="20">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10">
+        <v>33</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1185</v>
       </c>
       <c r="H22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3375,13 +3523,13 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="20">
         <v>20</v>
       </c>
       <c r="E23">
         <v>33</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>910</v>
       </c>
@@ -3392,7 +3540,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3401,16 +3549,25 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D24" s="20">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10">
+        <v>33</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1185</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3419,9 +3576,18 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D25" s="20">
+        <v>22</v>
+      </c>
+      <c r="E25" s="10">
+        <v>33</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1185</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -3429,7 +3595,7 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3438,9 +3604,18 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D26" s="20">
+        <v>31</v>
+      </c>
+      <c r="E26" s="10">
+        <v>33</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G26" s="10">
+        <v>790</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3448,7 +3623,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3457,13 +3632,13 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="20">
         <v>32</v>
       </c>
       <c r="E27">
         <v>33</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -3476,7 +3651,7 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3485,9 +3660,18 @@
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D28" s="20">
+        <v>33</v>
+      </c>
+      <c r="E28" s="10">
+        <v>33</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>790</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -3495,7 +3679,7 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3504,9 +3688,18 @@
       <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D29" s="20">
+        <v>34</v>
+      </c>
+      <c r="E29" s="10">
+        <v>33</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+      <c r="G29" s="10">
+        <v>790</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -3514,7 +3707,7 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3523,9 +3716,18 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D30" s="20">
+        <v>25</v>
+      </c>
+      <c r="E30" s="10">
+        <v>37</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G30" s="10">
+        <v>867</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -3533,7 +3735,7 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3542,13 +3744,13 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="20">
         <v>26</v>
       </c>
       <c r="E31">
         <v>37</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
@@ -3561,7 +3763,7 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3570,9 +3772,18 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D32" s="20">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10">
+        <v>37</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="G32" s="10">
+        <v>867</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -3580,7 +3791,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3589,9 +3800,18 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D33" s="20">
+        <v>28</v>
+      </c>
+      <c r="E33" s="10">
+        <v>37</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="G33" s="10">
+        <v>867</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -3599,7 +3819,7 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3608,9 +3828,18 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D34" s="20">
+        <v>28</v>
+      </c>
+      <c r="E34" s="10">
+        <v>37</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="G34" s="10">
+        <v>403</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -3618,7 +3847,7 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3627,13 +3856,13 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="20">
         <v>29</v>
       </c>
       <c r="E35">
         <v>37</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="20">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
@@ -3646,7 +3875,7 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3655,9 +3884,18 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D36" s="20">
+        <v>30</v>
+      </c>
+      <c r="E36" s="10">
+        <v>37</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G36" s="10">
+        <v>403</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -3665,7 +3903,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3674,16 +3912,25 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D37" s="20">
+        <v>31</v>
+      </c>
+      <c r="E37" s="10">
+        <v>37</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G37" s="10">
+        <v>403</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3692,16 +3939,25 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D38" s="20">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10">
+        <v>37</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1150</v>
       </c>
       <c r="H38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3710,13 +3966,13 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="20">
         <v>28</v>
       </c>
       <c r="E39">
         <v>37</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="20">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
@@ -3728,7 +3984,7 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3737,16 +3993,25 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D40" s="20">
+        <v>29</v>
+      </c>
+      <c r="E40" s="10">
+        <v>37</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1150</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3755,16 +4020,25 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D41" s="20">
+        <v>30</v>
+      </c>
+      <c r="E41" s="10">
+        <v>37</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1150</v>
       </c>
       <c r="H41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3773,16 +4047,25 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D42" s="20">
+        <v>33</v>
+      </c>
+      <c r="E42" s="10">
+        <v>37</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G42" s="10">
+        <v>836</v>
       </c>
       <c r="H42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3791,13 +4074,13 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="20">
         <v>34</v>
       </c>
       <c r="E43">
         <v>37</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="20">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
@@ -3809,7 +4092,7 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3818,16 +4101,25 @@
       <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D44" s="20">
+        <v>35</v>
+      </c>
+      <c r="E44" s="10">
+        <v>37</v>
+      </c>
+      <c r="F44" s="20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G44" s="10">
+        <v>836</v>
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3836,16 +4128,25 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D45" s="20">
+        <v>36</v>
+      </c>
+      <c r="E45" s="10">
+        <v>37</v>
+      </c>
+      <c r="F45" s="20">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G45" s="10">
+        <v>836</v>
       </c>
       <c r="H45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3854,9 +4155,18 @@
       <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D46" s="20">
+        <v>24</v>
+      </c>
+      <c r="E46" s="10">
+        <v>38</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="G46" s="10">
+        <v>898</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -3864,7 +4174,7 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3873,13 +4183,13 @@
       <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="20">
         <v>25</v>
       </c>
       <c r="E47">
         <v>38</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="20">
         <f t="shared" si="0"/>
         <v>910</v>
       </c>
@@ -3892,7 +4202,7 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3901,16 +4211,25 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D48" s="20">
+        <v>26</v>
+      </c>
+      <c r="E48" s="10">
+        <v>38</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G48" s="10">
+        <v>898</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3919,16 +4238,25 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D49" s="20">
+        <v>27</v>
+      </c>
+      <c r="E49" s="10">
+        <v>38</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="G49" s="10">
+        <v>898</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3937,9 +4265,18 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D50" s="20">
+        <v>30</v>
+      </c>
+      <c r="E50" s="10">
+        <v>38</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G50" s="10">
+        <v>420</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3947,7 +4284,7 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3956,13 +4293,13 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="20">
         <v>31</v>
       </c>
       <c r="E51">
         <v>38</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="20">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
@@ -3975,7 +4312,7 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3984,9 +4321,18 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D52" s="20">
+        <v>32</v>
+      </c>
+      <c r="E52" s="10">
+        <v>38</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G52" s="10">
+        <v>420</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3994,7 +4340,7 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4003,9 +4349,18 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D53" s="20">
+        <v>33</v>
+      </c>
+      <c r="E53" s="10">
+        <v>38</v>
+      </c>
+      <c r="F53" s="20">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G53" s="10">
+        <v>420</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -4013,7 +4368,7 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4022,16 +4377,25 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D54" s="20">
+        <v>28</v>
+      </c>
+      <c r="E54" s="10">
+        <v>38</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1208</v>
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4040,13 +4404,13 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="20">
         <v>29</v>
       </c>
       <c r="E55">
         <v>38</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="20">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
@@ -4057,7 +4421,7 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4066,16 +4430,25 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D56" s="20">
+        <v>30</v>
+      </c>
+      <c r="E56" s="10">
+        <v>38</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1208</v>
       </c>
       <c r="H56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4084,397 +4457,806 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D57" s="20">
+        <v>31</v>
+      </c>
+      <c r="E57" s="10">
+        <v>38</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1208</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+    <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="D58" s="20">
+        <v>25</v>
+      </c>
+      <c r="E58" s="10">
+        <v>49</v>
+      </c>
+      <c r="F58" s="20">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="G58" s="10">
+        <v>937</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="D59" s="20">
+        <v>26</v>
+      </c>
+      <c r="E59" s="10">
+        <v>49</v>
+      </c>
+      <c r="F59" s="20">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="G59" s="10">
+        <v>927</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="D60" s="20">
+        <v>27</v>
+      </c>
+      <c r="E60" s="10">
+        <v>49</v>
+      </c>
+      <c r="F60" s="20">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="G60" s="10">
+        <v>950</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="D61" s="20">
+        <v>28</v>
+      </c>
+      <c r="E61" s="10">
+        <v>49</v>
+      </c>
+      <c r="F61" s="20">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="G61" s="10">
+        <v>935</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="D62" s="20">
+        <v>29</v>
+      </c>
+      <c r="E62" s="10">
+        <v>49</v>
+      </c>
+      <c r="F62" s="20">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="G62" s="10">
+        <v>904</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="D63" s="20">
+        <v>30</v>
+      </c>
+      <c r="E63" s="10">
+        <v>49</v>
+      </c>
+      <c r="F63" s="20">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="G63" s="10">
+        <v>940</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="D64" s="20">
+        <v>31</v>
+      </c>
+      <c r="E64" s="10">
+        <v>49</v>
+      </c>
+      <c r="F64" s="20">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="G64">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="D65" s="20">
+        <v>32</v>
+      </c>
+      <c r="E65" s="10">
+        <v>49</v>
+      </c>
+      <c r="F65" s="20">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="G65">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="D66" s="20">
+        <v>33</v>
+      </c>
+      <c r="E66" s="10">
+        <v>49</v>
+      </c>
+      <c r="F66" s="20">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="G66" s="10">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="D67" s="20">
+        <v>34</v>
+      </c>
+      <c r="E67" s="10">
+        <v>49</v>
+      </c>
+      <c r="F67" s="20">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G67" s="10">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="D68" s="20">
+        <v>35</v>
+      </c>
+      <c r="E68" s="10">
+        <v>49</v>
+      </c>
+      <c r="F68" s="20">
+        <f t="shared" ref="F68:F89" si="1">(E68-D68) * 70</f>
+        <v>980</v>
+      </c>
+      <c r="G68" s="10">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="D69" s="20">
+        <v>27</v>
+      </c>
+      <c r="E69" s="10">
+        <v>49</v>
+      </c>
+      <c r="F69" s="20">
+        <f t="shared" si="1"/>
+        <v>1540</v>
+      </c>
+      <c r="G69" s="10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="D70" s="20">
+        <v>28</v>
+      </c>
+      <c r="E70" s="10">
+        <v>49</v>
+      </c>
+      <c r="F70" s="20">
+        <f t="shared" si="1"/>
+        <v>1470</v>
+      </c>
+      <c r="G70" s="10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="D71" s="20">
+        <v>29</v>
+      </c>
+      <c r="E71" s="10">
+        <v>49</v>
+      </c>
+      <c r="F71" s="20">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="G71" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="D72" s="20">
+        <v>30</v>
+      </c>
+      <c r="E72" s="10">
+        <v>49</v>
+      </c>
+      <c r="F72" s="20">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="G72" s="10">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="D73" s="20">
+        <v>31</v>
+      </c>
+      <c r="E73" s="10">
+        <v>49</v>
+      </c>
+      <c r="F73" s="20">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="G73">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="D74" s="20">
+        <v>32</v>
+      </c>
+      <c r="E74" s="10">
+        <v>49</v>
+      </c>
+      <c r="F74" s="20">
+        <f t="shared" si="1"/>
+        <v>1190</v>
+      </c>
+      <c r="G74">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="D75" s="20">
+        <v>33</v>
+      </c>
+      <c r="E75" s="10">
+        <v>49</v>
+      </c>
+      <c r="F75" s="20">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="G75">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="D76" s="20">
+        <v>34</v>
+      </c>
+      <c r="E76" s="10">
+        <v>49</v>
+      </c>
+      <c r="F76" s="20">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="G76">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="D77" s="20">
+        <v>35</v>
+      </c>
+      <c r="E77" s="10">
+        <v>49</v>
+      </c>
+      <c r="F77" s="20">
+        <f t="shared" si="1"/>
+        <v>980</v>
+      </c>
+      <c r="G77" s="10">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="D78" s="20">
+        <v>36</v>
+      </c>
+      <c r="E78" s="10">
+        <v>49</v>
+      </c>
+      <c r="F78" s="20">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="G78" s="10">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="D79" s="20">
+        <v>37</v>
+      </c>
+      <c r="E79" s="10">
+        <v>49</v>
+      </c>
+      <c r="F79" s="20">
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="G79" s="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="D80" s="20">
+        <v>38</v>
+      </c>
+      <c r="E80" s="10">
+        <v>49</v>
+      </c>
+      <c r="F80" s="20">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="G80" s="10">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="D81" s="20">
+        <v>39</v>
+      </c>
+      <c r="E81" s="10">
+        <v>49</v>
+      </c>
+      <c r="F81" s="20">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G81" s="10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="D82" s="20">
+        <v>32</v>
+      </c>
+      <c r="E82" s="10">
+        <v>49</v>
+      </c>
+      <c r="F82" s="20">
+        <f t="shared" si="1"/>
+        <v>1190</v>
+      </c>
+      <c r="G82">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="D83" s="20">
+        <v>33</v>
+      </c>
+      <c r="E83" s="10">
+        <v>49</v>
+      </c>
+      <c r="F83" s="20">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="G83">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="D84" s="20">
+        <v>34</v>
+      </c>
+      <c r="E84" s="10">
+        <v>49</v>
+      </c>
+      <c r="F84" s="20">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="G84">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="D85" s="20">
+        <v>35</v>
+      </c>
+      <c r="E85" s="10">
+        <v>49</v>
+      </c>
+      <c r="F85" s="20">
+        <f t="shared" si="1"/>
+        <v>980</v>
+      </c>
+      <c r="G85">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="D86" s="20">
+        <v>38</v>
+      </c>
+      <c r="E86" s="10">
+        <v>49</v>
+      </c>
+      <c r="F86" s="20">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="G86">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="D87" s="20">
+        <v>39</v>
+      </c>
+      <c r="E87" s="10">
+        <v>49</v>
+      </c>
+      <c r="F87" s="20">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G87">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="D88" s="20">
+        <v>40</v>
+      </c>
+      <c r="E88" s="10">
+        <v>49</v>
+      </c>
+      <c r="F88" s="20">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="G88">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="D89" s="20">
+        <v>41</v>
+      </c>
+      <c r="E89" s="10">
+        <v>49</v>
+      </c>
+      <c r="F89" s="20">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="G89">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -4512,16 +5294,16 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H1" s="2"/>
@@ -4652,512 +5434,512 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>41856</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>41876</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>41856</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>41878</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>41856</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>41878</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>41856</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>41878</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>42100</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>42121</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>100</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>41857</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>41885</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>41857</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>41885</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>41857</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>41885</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>41836</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>41900</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>41836</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>41900</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>41836</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>41900</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>42102</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>42135</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>75</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>42108</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>42167</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>42108</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>42167</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>42108</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>42167</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>42108</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>42167</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="20" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
@@ -883,7 +883,7 @@
       <c r="F1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="H1" s="2"/>
@@ -903,6 +903,19 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10">
+        <f>(E2-D2)*70</f>
+        <v>350</v>
+      </c>
+      <c r="G2" s="20">
+        <v>880</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -929,7 +942,7 @@
         <f>(E3-D3)*70</f>
         <v>280</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="20">
         <v>880</v>
       </c>
       <c r="I3" s="4"/>
@@ -948,9 +961,18 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10">
+        <v>38</v>
+      </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F67" si="0">(E4-D4)*70</f>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G4" s="20">
+        <v>880</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -968,9 +990,18 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>38</v>
+      </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="G5" s="20">
+        <v>880</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -988,9 +1019,18 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10">
+        <v>38</v>
+      </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="G6" s="20">
+        <v>404</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1011,14 +1051,14 @@
       <c r="D7">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>38</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="20">
         <v>404</v>
       </c>
       <c r="I7" s="4"/>
@@ -1037,9 +1077,18 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10">
+        <v>38</v>
+      </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="G8" s="20">
+        <v>404</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1057,9 +1106,18 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10">
+        <v>38</v>
+      </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G9" s="20">
+        <v>404</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1077,9 +1135,18 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10">
+        <v>38</v>
+      </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1100</v>
       </c>
       <c r="I10" s="4"/>
       <c r="L10" s="4"/>
@@ -1105,7 +1172,7 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="20">
         <v>1100</v>
       </c>
       <c r="I11" s="4"/>
@@ -1123,9 +1190,18 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>38</v>
+      </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1100</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1143,9 +1219,18 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10">
+        <v>38</v>
+      </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1100</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1163,9 +1248,18 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10">
+        <v>35</v>
+      </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G14" s="20">
+        <v>742</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1193,7 +1287,7 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="20">
         <v>742</v>
       </c>
       <c r="I15" s="4"/>
@@ -1212,9 +1306,18 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10">
+        <v>35</v>
+      </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G16" s="20">
+        <v>742</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1232,9 +1335,18 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10">
+        <v>35</v>
+      </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="G17" s="20">
+        <v>742</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1252,9 +1364,18 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10">
+        <v>35</v>
+      </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G18" s="20">
+        <v>371</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1282,7 +1403,7 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="20">
         <v>371</v>
       </c>
       <c r="I19" s="4"/>
@@ -1301,9 +1422,18 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
+        <v>35</v>
+      </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G20" s="20">
+        <v>371</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1321,9 +1451,18 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10">
+        <v>35</v>
+      </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="G21" s="20">
+        <v>371</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1341,9 +1480,18 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10">
+        <v>35</v>
+      </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1090</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1369,7 +1517,7 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="20">
         <v>1090</v>
       </c>
       <c r="I23" s="4"/>
@@ -1387,9 +1535,18 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10">
+        <v>35</v>
+      </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1090</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1407,9 +1564,18 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25" s="10">
+        <v>35</v>
+      </c>
       <c r="F25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1090</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1427,9 +1593,18 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26" s="10">
+        <v>35</v>
+      </c>
       <c r="F26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G26" s="20">
+        <v>812</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1450,14 +1625,14 @@
       <c r="D27">
         <v>29</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
         <v>35</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="20">
         <v>812</v>
       </c>
       <c r="I27" s="4"/>
@@ -1476,9 +1651,18 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10">
+        <v>35</v>
+      </c>
       <c r="F28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G28" s="20">
+        <v>812</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1496,9 +1680,18 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29" s="10">
+        <v>35</v>
+      </c>
       <c r="F29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="G29" s="20">
+        <v>812</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1516,9 +1709,18 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30" s="10">
+        <v>35</v>
+      </c>
       <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="G30" s="20">
+        <v>370</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1539,14 +1741,14 @@
       <c r="D31">
         <v>25</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="10">
         <v>35</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="20">
         <v>370</v>
       </c>
       <c r="I31" s="4"/>
@@ -1565,9 +1767,18 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32" s="10">
+        <v>35</v>
+      </c>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G32" s="20">
+        <v>370</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1585,9 +1796,18 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10">
+        <v>35</v>
+      </c>
       <c r="F33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="G33" s="20">
+        <v>370</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1605,9 +1825,18 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10">
+        <v>35</v>
+      </c>
       <c r="F34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1152</v>
       </c>
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>
@@ -1627,14 +1856,14 @@
       <c r="D35">
         <v>27</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="10">
         <v>35</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="20">
         <v>1152</v>
       </c>
       <c r="I35" s="4"/>
@@ -1653,9 +1882,18 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36" s="10">
+        <v>35</v>
+      </c>
       <c r="F36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1152</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1673,9 +1911,18 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37" s="10">
+        <v>35</v>
+      </c>
       <c r="F37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1152</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1693,9 +1940,18 @@
       <c r="C38" t="s">
         <v>46</v>
       </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38" s="10">
+        <v>35</v>
+      </c>
       <c r="F38" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G38" s="20">
+        <v>802</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1716,14 +1972,14 @@
       <c r="D39">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="10">
         <v>35</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="20">
         <v>802</v>
       </c>
       <c r="I39" s="4"/>
@@ -1742,9 +1998,18 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
+      <c r="D40">
+        <v>32</v>
+      </c>
+      <c r="E40" s="10">
+        <v>35</v>
+      </c>
       <c r="F40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G40" s="20">
+        <v>802</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1762,9 +2027,18 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
+      <c r="D41">
+        <v>33</v>
+      </c>
+      <c r="E41" s="10">
+        <v>35</v>
+      </c>
       <c r="F41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="G41" s="20">
+        <v>802</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1782,9 +2056,18 @@
       <c r="C42" t="s">
         <v>2</v>
       </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10">
+        <v>35</v>
+      </c>
       <c r="F42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="G42" s="20">
+        <v>880</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1805,14 +2088,14 @@
       <c r="D43">
         <v>24</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="10">
         <v>35</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="20">
         <v>880</v>
       </c>
       <c r="I43" s="4"/>
@@ -1831,9 +2114,18 @@
       <c r="C44" t="s">
         <v>2</v>
       </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" s="10">
+        <v>35</v>
+      </c>
       <c r="F44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="G44" s="20">
+        <v>880</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1851,9 +2143,18 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45" s="10">
+        <v>35</v>
+      </c>
       <c r="F45" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G45" s="20">
+        <v>880</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -1871,9 +2172,18 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46" s="10">
+        <v>35</v>
+      </c>
       <c r="F46" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="G46" s="20">
+        <v>430</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -1894,14 +2204,14 @@
       <c r="D47">
         <v>24</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="10">
         <v>35</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="20">
         <v>430</v>
       </c>
       <c r="I47" s="4"/>
@@ -1920,9 +2230,18 @@
       <c r="C48" t="s">
         <v>9</v>
       </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48" s="10">
+        <v>35</v>
+      </c>
       <c r="F48" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="G48" s="20">
+        <v>430</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1940,9 +2259,18 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="E49" s="10">
+        <v>35</v>
+      </c>
       <c r="F49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G49" s="20">
+        <v>430</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -1960,9 +2288,18 @@
       <c r="C50" t="s">
         <v>46</v>
       </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+      <c r="E50" s="10">
+        <v>35</v>
+      </c>
       <c r="F50" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="G50" s="20">
+        <v>790</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -1983,14 +2320,14 @@
       <c r="D51">
         <v>34</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="10">
         <v>35</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="20">
         <v>790</v>
       </c>
       <c r="I51" s="4"/>
@@ -2009,9 +2346,18 @@
       <c r="C52" t="s">
         <v>46</v>
       </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+      <c r="E52" s="10">
+        <v>35</v>
+      </c>
       <c r="F52" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="G52" s="20">
+        <v>790</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -2029,9 +2375,18 @@
       <c r="C53" t="s">
         <v>46</v>
       </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="E53" s="10">
+        <v>35</v>
+      </c>
       <c r="F53" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-70</v>
+      </c>
+      <c r="G53" s="20">
+        <v>790</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2049,9 +2404,18 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
       <c r="F54" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="G54" s="20">
+        <v>880</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2072,14 +2436,14 @@
       <c r="D55">
         <v>27</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="10">
         <v>36</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="20">
         <v>880</v>
       </c>
       <c r="I55" s="4"/>
@@ -2098,9 +2462,18 @@
       <c r="C56" t="s">
         <v>2</v>
       </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56" s="10">
+        <v>36</v>
+      </c>
       <c r="F56" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="G56" s="20">
+        <v>880</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -2118,9 +2491,18 @@
       <c r="C57" t="s">
         <v>2</v>
       </c>
+      <c r="D57">
+        <v>29</v>
+      </c>
+      <c r="E57" s="10">
+        <v>36</v>
+      </c>
       <c r="F57" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G57" s="20">
+        <v>880</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -2138,9 +2520,18 @@
       <c r="C58" t="s">
         <v>9</v>
       </c>
+      <c r="D58">
+        <v>21</v>
+      </c>
+      <c r="E58" s="10">
+        <v>36</v>
+      </c>
       <c r="F58" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1050</v>
+      </c>
+      <c r="G58" s="20">
+        <v>44</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2161,14 +2552,14 @@
       <c r="D59">
         <v>22</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="10">
         <v>36</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="20">
         <v>44</v>
       </c>
       <c r="I59" s="4"/>
@@ -2187,9 +2578,18 @@
       <c r="C60" t="s">
         <v>9</v>
       </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60" s="10">
+        <v>36</v>
+      </c>
       <c r="F60" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>910</v>
+      </c>
+      <c r="G60" s="20">
+        <v>44</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -2207,9 +2607,18 @@
       <c r="C61" t="s">
         <v>9</v>
       </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61" s="10">
+        <v>36</v>
+      </c>
       <c r="F61" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="G61" s="20">
+        <v>44</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -2227,9 +2636,18 @@
       <c r="C62" t="s">
         <v>10</v>
       </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" s="10">
+        <v>36</v>
+      </c>
       <c r="F62" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1050</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1175</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -2250,14 +2668,14 @@
       <c r="D63">
         <v>22</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="10">
         <v>36</v>
       </c>
       <c r="F63" s="10">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="20">
         <v>1175</v>
       </c>
       <c r="I63" s="4"/>
@@ -2275,9 +2693,18 @@
       <c r="C64" t="s">
         <v>10</v>
       </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64" s="10">
+        <v>36</v>
+      </c>
       <c r="F64" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>910</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1175</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -2295,9 +2722,18 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65" s="10">
+        <v>36</v>
+      </c>
       <c r="F65" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1175</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -2315,9 +2751,18 @@
       <c r="C66" t="s">
         <v>46</v>
       </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66" s="10">
+        <v>36</v>
+      </c>
       <c r="F66" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G66" s="20">
+        <v>830</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -2338,14 +2783,14 @@
       <c r="D67">
         <v>32</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="10">
         <v>36</v>
       </c>
       <c r="F67" s="10">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="20">
         <v>830</v>
       </c>
       <c r="I67" s="4"/>
@@ -2364,9 +2809,18 @@
       <c r="C68" t="s">
         <v>46</v>
       </c>
+      <c r="D68">
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>36</v>
+      </c>
       <c r="F68" s="10">
         <f t="shared" ref="F68:F81" si="1">(E68-D68)*70</f>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G68" s="20">
+        <v>830</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -2384,9 +2838,18 @@
       <c r="C69" t="s">
         <v>46</v>
       </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>36</v>
+      </c>
       <c r="F69" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="G69" s="20">
+        <v>830</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -2404,9 +2867,18 @@
       <c r="C70" t="s">
         <v>2</v>
       </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>32</v>
+      </c>
       <c r="F70" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="G70" s="20">
+        <v>844</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -2434,7 +2906,7 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="20">
         <v>844</v>
       </c>
       <c r="I71" s="4"/>
@@ -2453,9 +2925,18 @@
       <c r="C72" t="s">
         <v>2</v>
       </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72" s="10">
+        <v>32</v>
+      </c>
       <c r="F72" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G72" s="20">
+        <v>844</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -2473,9 +2954,18 @@
       <c r="C73" t="s">
         <v>2</v>
       </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73" s="10">
+        <v>32</v>
+      </c>
       <c r="F73" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="G73" s="20">
+        <v>844</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -2493,9 +2983,18 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74" s="10">
+        <v>32</v>
+      </c>
       <c r="F74" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="G74" s="20">
+        <v>440</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -2516,14 +3015,14 @@
       <c r="D75">
         <v>27</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="10">
         <v>32</v>
       </c>
       <c r="F75" s="10">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="20">
         <v>440</v>
       </c>
       <c r="I75" s="4"/>
@@ -2542,9 +3041,18 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
+      <c r="D76">
+        <v>28</v>
+      </c>
+      <c r="E76" s="10">
+        <v>32</v>
+      </c>
       <c r="F76" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="G76" s="20">
+        <v>440</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -2562,9 +3070,18 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
+      <c r="D77">
+        <v>29</v>
+      </c>
+      <c r="E77" s="10">
+        <v>32</v>
+      </c>
       <c r="F77" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="G77" s="20">
+        <v>440</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -2582,9 +3099,18 @@
       <c r="C78" t="s">
         <v>10</v>
       </c>
+      <c r="D78">
+        <v>23</v>
+      </c>
+      <c r="E78" s="10">
+        <v>32</v>
+      </c>
       <c r="F78" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>630</v>
+      </c>
+      <c r="G78" s="20">
+        <v>1148</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -2605,14 +3131,14 @@
       <c r="D79">
         <v>24</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="10">
         <v>32</v>
       </c>
       <c r="F79" s="10">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="20">
         <v>1148</v>
       </c>
       <c r="I79" s="4"/>
@@ -2631,9 +3157,18 @@
       <c r="C80" t="s">
         <v>10</v>
       </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" s="10">
+        <v>32</v>
+      </c>
       <c r="F80" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="G80" s="20">
+        <v>1148</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -2651,9 +3186,18 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81" s="10">
+        <v>32</v>
+      </c>
       <c r="F81" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="G81" s="20">
+        <v>1148</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -2887,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2531,7 @@
         <v>1050</v>
       </c>
       <c r="G58" s="20">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2560,7 +2560,7 @@
         <v>980</v>
       </c>
       <c r="G59" s="20">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2589,7 +2589,7 @@
         <v>910</v>
       </c>
       <c r="G60" s="20">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -2618,7 +2618,7 @@
         <v>840</v>
       </c>
       <c r="G61" s="20">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -474,6 +474,69 @@
   </si>
   <si>
     <t>layered_cellFillData_p6s5_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s4_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s5_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s6_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s1_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s2_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s3_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s4_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s4_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s5_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s6_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s1_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s2_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s3_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s3_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s4_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s5_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s6_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s1_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s2_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s3_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s4_ERC_cropped.mat</t>
   </si>
 </sst>
 </file>
@@ -844,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -3431,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -5811,16 +5874,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
@@ -5866,6 +5929,19 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2" s="10">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <f>(E2-D2)*70</f>
+        <v>140</v>
+      </c>
+      <c r="G2" s="10">
+        <v>462</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5883,7 +5959,11 @@
       <c r="E3">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F22" si="0">(E3-D3)*70</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="10">
         <v>462</v>
       </c>
     </row>
@@ -5897,6 +5977,19 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>462</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5908,6 +6001,19 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+      <c r="G5" s="10">
+        <v>462</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5919,6 +6025,19 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G6" s="10">
+        <v>878</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5936,7 +6055,11 @@
       <c r="E7">
         <v>28</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G7" s="10">
         <v>878</v>
       </c>
     </row>
@@ -5950,6 +6073,19 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G8" s="10">
+        <v>878</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5961,9 +6097,424 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10">
+        <v>29</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G12">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G13">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14" s="10">
+        <v>29</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10">
+        <v>29</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G17">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G18">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10">
+        <v>29</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G19">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>29</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G20">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G21">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G22">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="168">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -507,12 +507,6 @@
   </si>
   <si>
     <t>layered_cellFillData_CH_150612_A_p5s1_AL_cropped.mat</t>
-  </si>
-  <si>
-    <t>layered_cellFillData_CH_150612_A_p5s2_AL_cropped.mat</t>
-  </si>
-  <si>
-    <t>layered_cellFillData_CH_150612_A_p5s3_AL_cropped.mat</t>
   </si>
   <si>
     <t>layered_cellFillData_CH_150612_A_p4s3_ERC_cropped.mat</t>
@@ -5874,10 +5868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5954,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F22" si="0">(E3-D3)*70</f>
+        <f t="shared" ref="F3:F20" si="0">(E3-D3)*70</f>
         <v>70</v>
       </c>
       <c r="G3" s="10">
@@ -6382,22 +6376,10 @@
       <c r="B21" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>26</v>
-      </c>
-      <c r="E21" s="10">
-        <v>29</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G21">
-        <v>780</v>
-      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -6407,20 +6389,7 @@
         <v>161</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10">
-        <v>27</v>
-      </c>
-      <c r="E22" s="10">
-        <v>29</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="G22">
-        <v>711</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6430,10 +6399,9 @@
       <c r="B23" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -6487,28 +6455,6 @@
         <v>167</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="8550" activeTab="2"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="28280" windowHeight="16460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -17,8 +12,11 @@
     <sheet name="SOMcre" sheetId="5" r:id="rId3"/>
     <sheet name="Experiment Notes" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="190">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -209,9 +207,6 @@
     <t>PM Coordinates</t>
   </si>
   <si>
-    <t>AL Coordinates</t>
-  </si>
-  <si>
     <t>RL Coordinates</t>
   </si>
   <si>
@@ -230,9 +225,6 @@
     <t>SOM-Cre x Ai14</t>
   </si>
   <si>
-    <t>volume injected (nl)</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -263,12 +255,6 @@
     <t>Alexa-488</t>
   </si>
   <si>
-    <t>50 - 120 nl</t>
-  </si>
-  <si>
-    <t>120 nl</t>
-  </si>
-  <si>
     <t>EB_150427_A</t>
   </si>
   <si>
@@ -365,9 +351,6 @@
     <t>630, 880</t>
   </si>
   <si>
-    <t>injection coordinates (um) [a/p, m/l from CC fusion]</t>
-  </si>
-  <si>
     <t>980, 1175</t>
   </si>
   <si>
@@ -531,6 +514,87 @@
   </si>
   <si>
     <t>layered_cellFillData_CH_150612_A_p5s4_ERC_cropped.mat</t>
+  </si>
+  <si>
+    <t>Surgery Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.56 mm left of lambda, posterior edge on lamboid suture. Injected 100 nl unfloxed eGFP, 400 um deep, 50 nl/min, waited ten mins. May have injected more due to built up pressure in pipette. </t>
+  </si>
+  <si>
+    <t>AL Coordinates (um) [a/p, m/l from CC fusion]</t>
+  </si>
+  <si>
+    <t>Histology Notes</t>
+  </si>
+  <si>
+    <t>Great perfusion but possible cortical damage during extraction. 70 micron sections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.56 mm left of lambda, posterior edge on suture. Injected 100 nl unfloxed eGFP, 400 um deep, 50 nl/min, waited ten mins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor perfusion quality (brain not fixed or cleared at all). 70 micron sections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.56 mm left of lambda, posterior edge on suture, some backflow during injection. 100 nl unfloxed eGFP, 400 um deep, 50 nl/min, waited ten mins. </t>
+  </si>
+  <si>
+    <t>Decent perfusion quality. 70 micron sections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.55 mm left of lambda, bottom edge right on suture. Mouse was housed alone and was a bit psycho/depressed. Mouse was 2 months old (dob 7/16/14) at time of surgery. Injected 100 nl unfloxed eGFP, 50 nl/min, 400 um deep, waited ten mins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent perfusion quality, possible cortical damage during extraction (mostly on right hemisphere but possible on left as well). 70 micron sections. </t>
+  </si>
+  <si>
+    <t>Mouse was 2 months old (dob 7/16/14) at time of injection. Burr hole 2.55 mm left of lambda, bottom edge slightly anterior to suture. Injected 100 nl unfloxed eGFP, 50 nl/min, 400 um deep, waited ten mins. May have injected less than 100 nl due to appearance of an air bubble in the tip of pipette.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent perfusion quality. 70 micron sections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.55 mm left of lambda, slightly anterior to suture. Some bleeding in burr hole during drilling. Injected 100 nl unfloxed eGFP, 50 nl/min, 400 um deep, waited ten mins. It was hard to tell when the pipette went in the brain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.56 mm left of lambda. Some bleeding during drilling. Injected 100 nl of AAV1.chR2.TdTomato 400 microns deep, 50 nl/min, waited 10 min. Some back flow during injection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfusion 4 weeks after injection instead of 3! Punctured lung but brain was still clear. Possible damage to ventral side. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.55 mm left of lambda. Some bleeding during drilling. Injected 100 nl AAV9.ChR2.TdTomato 400 microns deep, 50 nl/min, waited 10 min. </t>
+  </si>
+  <si>
+    <t>Good perfusion. 70 micron sections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.55 mm left of lambda. Injected 100 nl AAV9.ChR2.TdTomato, 400 microns deep, 50 nl/min, waited 10 min. Nicked skull with scalpel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 micron sections. Decent perfusion but may have damaged cortex during extraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burr hole 2.55 mm left of lambda. Injected 100 nl AAV9.ChR2.TdTomato 400 microns deep, 50 nl/min, waited 10 min. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 micron sections. Good perfusion. </t>
+  </si>
+  <si>
+    <t>Injected 75 nl of unfloxed GFP into V1 at a flow rate of 50 nl/min. Some back flow</t>
+  </si>
+  <si>
+    <t>Injected 120 nl of Alexa-488 into V1 at a depth of 400 um. Injection site was roughly 2.57 mm left of lambda and anterior to the lamboid suture.</t>
+  </si>
+  <si>
+    <t>Injected 120 nl of Alexa-488 into V1 at a depth of 400 um.  Injection site was roughly 2.57 mm left of lambda and anterior to the lamboid suture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injected 50 to 120 nl of virus into V1. The exact quantity was unknown because the meniscus was difficult to see.  Injection site was roughly 2.57 mm left of lambda and anterior to the lamboid suture. Post-hoc analysis reveals massive injection site... </t>
+  </si>
+  <si>
+    <t>Injected 100 nl of virus into V1 at 350 um depth, 2.56 mm left of lambda, anterior to the lamboid suture.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +604,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +616,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,10 +661,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -619,8 +710,15 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -679,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,27 +999,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -932,16 +1030,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -950,7 +1048,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -979,7 +1077,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1106,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1037,7 +1135,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1164,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1193,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1124,7 +1222,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1251,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1280,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1307,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1335,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1364,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1393,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1324,7 +1422,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1451,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +1480,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1509,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1538,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1567,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1498,7 +1596,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1625,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1554,7 +1652,7 @@
       <c r="J22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1680,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1611,7 +1709,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1640,7 +1738,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1669,7 +1767,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1796,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1825,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1756,7 +1854,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1883,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1814,7 +1912,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1843,7 +1941,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +1970,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1998,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +2027,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1958,7 +2056,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +2085,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2016,7 +2114,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2045,7 +2143,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2172,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2201,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2230,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2161,7 +2259,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2190,7 +2288,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2317,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2346,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2277,7 +2375,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2306,7 +2404,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2335,7 +2433,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2462,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2491,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2422,7 +2520,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2451,7 +2549,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2480,7 +2578,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2509,7 +2607,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2538,7 +2636,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2567,7 +2665,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2596,7 +2694,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2723,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2654,7 +2752,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2683,7 +2781,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2712,7 +2810,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2740,7 +2838,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2867,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2896,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2827,7 +2925,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2856,7 +2954,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2983,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -2914,7 +3012,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +3041,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +3070,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3001,7 +3099,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -3030,7 +3128,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3157,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3088,7 +3186,7 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -3117,7 +3215,7 @@
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3146,7 +3244,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -3175,7 +3273,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3302,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3233,7 +3331,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -3262,225 +3360,230 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="M94" s="4"/>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:13">
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:13">
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="13:13">
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:13">
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="13:13">
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="13:13">
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="13:13">
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="13:13">
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="13:13">
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="13:13">
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="13:13">
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="13:13">
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="13:13">
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="13:13">
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:13">
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="13:13">
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="13:13">
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="13:13">
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="13:13">
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:13">
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="13:13">
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="13:13">
       <c r="M120" s="4"/>
     </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="13:13">
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="13:13">
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="13:13">
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="13:13">
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="13:13">
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="13:13">
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="13:13">
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="13:13">
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:13">
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:13">
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:13">
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:13">
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:13">
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:13">
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:13">
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:13">
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:13">
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:13">
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:13">
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:13">
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:13">
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:13">
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:13">
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="13:13">
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:13">
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:13">
       <c r="M146" s="4"/>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:13">
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:13">
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:13">
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:13">
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:13">
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:13">
       <c r="M152" s="4"/>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:13">
       <c r="M153" s="4"/>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:13">
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:13">
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:13">
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:13">
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:13">
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:13">
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:13">
       <c r="M160" s="4"/>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:13">
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:13">
       <c r="M162" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3488,26 +3591,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="12" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -3518,16 +3621,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3535,7 +3638,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -3564,7 +3667,7 @@
       <c r="K2" s="4"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +3695,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +3723,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -3647,7 +3750,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3778,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3806,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -3731,7 +3834,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
@@ -3759,7 +3862,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3889,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
@@ -3810,7 +3913,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
@@ -3837,7 +3940,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3967,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -3892,7 +3995,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +4023,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3948,7 +4051,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -3976,7 +4079,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -4003,7 +4106,7 @@
       <c r="I18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -4031,7 +4134,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -4059,7 +4162,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -4087,7 +4190,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -4114,7 +4217,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -4140,7 +4243,7 @@
       <c r="H23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -4167,7 +4270,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -4195,7 +4298,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -4223,7 +4326,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -4251,7 +4354,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -4279,7 +4382,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -4307,7 +4410,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
         <v>18</v>
       </c>
@@ -4335,7 +4438,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
         <v>18</v>
       </c>
@@ -4363,7 +4466,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="18" t="s">
         <v>18</v>
       </c>
@@ -4391,7 +4494,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4522,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="18" t="s">
         <v>18</v>
       </c>
@@ -4447,7 +4550,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="18" t="s">
         <v>18</v>
       </c>
@@ -4475,7 +4578,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="18" t="s">
         <v>18</v>
       </c>
@@ -4503,7 +4606,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4633,7 @@
       <c r="I37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="18" t="s">
         <v>18</v>
       </c>
@@ -4557,7 +4660,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="18" t="s">
         <v>18</v>
       </c>
@@ -4584,7 +4687,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4714,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
@@ -4638,7 +4741,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
@@ -4665,7 +4768,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
@@ -4692,7 +4795,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
@@ -4719,7 +4822,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="18" t="s">
         <v>18</v>
       </c>
@@ -4746,7 +4849,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="18" t="s">
         <v>19</v>
       </c>
@@ -4774,7 +4877,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="18" t="s">
         <v>19</v>
       </c>
@@ -4802,7 +4905,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
@@ -4829,7 +4932,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="18" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +4959,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="18" t="s">
         <v>19</v>
       </c>
@@ -4884,7 +4987,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="18" t="s">
         <v>19</v>
       </c>
@@ -4912,7 +5015,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="18" t="s">
         <v>19</v>
       </c>
@@ -4940,7 +5043,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="18" t="s">
         <v>19</v>
       </c>
@@ -4968,7 +5071,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="18" t="s">
         <v>19</v>
       </c>
@@ -4995,7 +5098,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="18" t="s">
         <v>19</v>
       </c>
@@ -5021,7 +5124,7 @@
       <c r="H55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="18" t="s">
         <v>19</v>
       </c>
@@ -5048,7 +5151,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="18" t="s">
         <v>19</v>
       </c>
@@ -5076,9 +5179,9 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="10" customFormat="1">
       <c r="A58" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
@@ -5104,9 +5207,9 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="10" customFormat="1">
       <c r="A59" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
@@ -5132,9 +5235,9 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="10" customFormat="1">
       <c r="A60" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>43</v>
@@ -5160,9 +5263,9 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="10" customFormat="1">
       <c r="A61" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>44</v>
@@ -5188,12 +5291,12 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>2</v>
@@ -5212,12 +5315,12 @@
         <v>904</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>2</v>
@@ -5236,12 +5339,12 @@
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>2</v>
@@ -5260,12 +5363,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>2</v>
@@ -5284,12 +5387,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="10" customFormat="1">
       <c r="A66" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>2</v>
@@ -5308,12 +5411,12 @@
         <v>908</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="10" customFormat="1">
       <c r="A67" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>2</v>
@@ -5332,12 +5435,12 @@
         <v>891</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="10" customFormat="1">
       <c r="A68" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>2</v>
@@ -5356,12 +5459,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="10" customFormat="1">
       <c r="A69" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>9</v>
@@ -5380,12 +5483,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="10" customFormat="1">
       <c r="A70" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>9</v>
@@ -5404,12 +5507,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="10" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>9</v>
@@ -5428,12 +5531,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="10" customFormat="1">
       <c r="A72" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>9</v>
@@ -5452,12 +5555,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>9</v>
@@ -5476,12 +5579,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>9</v>
@@ -5500,12 +5603,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>9</v>
@@ -5524,12 +5627,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>9</v>
@@ -5548,12 +5651,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="10" customFormat="1">
       <c r="A77" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>9</v>
@@ -5572,12 +5675,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="10" customFormat="1">
       <c r="A78" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>9</v>
@@ -5596,12 +5699,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="10" customFormat="1">
       <c r="A79" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>9</v>
@@ -5620,12 +5723,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="10" customFormat="1">
       <c r="A80" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>9</v>
@@ -5644,12 +5747,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="10" customFormat="1">
       <c r="A81" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>9</v>
@@ -5668,12 +5771,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>10</v>
@@ -5692,12 +5795,12 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>10</v>
@@ -5716,12 +5819,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>10</v>
@@ -5740,12 +5843,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>10</v>
@@ -5764,12 +5867,12 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>46</v>
@@ -5788,12 +5891,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>46</v>
@@ -5812,12 +5915,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>46</v>
@@ -5836,12 +5939,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>46</v>
@@ -5862,7 +5965,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5870,22 +5978,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5896,16 +6004,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5913,7 +6021,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -5937,7 +6045,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -5961,7 +6069,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5985,7 +6093,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6009,7 +6117,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6033,7 +6141,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -6057,7 +6165,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6081,7 +6189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6105,12 +6213,12 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -6129,12 +6237,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
@@ -6153,12 +6261,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>9</v>
@@ -6177,12 +6285,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -6201,12 +6309,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>9</v>
@@ -6225,12 +6333,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
@@ -6249,12 +6357,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>9</v>
@@ -6273,12 +6381,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
@@ -6297,12 +6405,12 @@
         <v>816</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
@@ -6321,12 +6429,12 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>2</v>
@@ -6345,12 +6453,12 @@
         <v>811</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
@@ -6369,90 +6477,90 @@
         <v>760</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -6460,7 +6568,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6468,29 +6581,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="62" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="52.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -6498,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>56</v>
@@ -6510,33 +6623,33 @@
         <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="62" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="13">
         <v>41856</v>
@@ -6545,27 +6658,33 @@
         <v>41876</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="62" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="15">
         <v>41856</v>
@@ -6574,31 +6693,36 @@
         <v>41878</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="62" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15">
         <v>41856</v>
@@ -6607,31 +6731,36 @@
         <v>41878</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="I4" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="62" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15">
         <v>41856</v>
@@ -6640,28 +6769,33 @@
         <v>41878</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="62" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15">
         <v>42100</v>
@@ -6670,22 +6804,24 @@
         <v>42121</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="6">
-        <v>100</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="62" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="15">
         <v>41857</v>
@@ -6694,28 +6830,33 @@
         <v>41885</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="62" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="15">
         <v>41857</v>
@@ -6724,28 +6865,33 @@
         <v>41885</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="62" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="15">
         <v>41857</v>
@@ -6754,31 +6900,36 @@
         <v>41885</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="I9" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="62" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="15">
         <v>41836</v>
@@ -6787,28 +6938,33 @@
         <v>41900</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="92" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="15">
         <v>41836</v>
@@ -6817,31 +6973,36 @@
         <v>41900</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="I11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="15">
         <v>41836</v>
@@ -6850,28 +7011,33 @@
         <v>41900</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="62" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="14">
         <v>42102</v>
@@ -6880,27 +7046,30 @@
         <v>42135</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="62" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="6">
-        <v>75</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="14">
         <v>42108</v>
@@ -6909,21 +7078,24 @@
         <v>42167</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="62" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="14">
         <v>42108</v>
@@ -6932,21 +7104,24 @@
         <v>42167</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="62" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="14">
         <v>42108</v>
@@ -6955,21 +7130,24 @@
         <v>42167</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="62" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="14">
         <v>42108</v>
@@ -6978,14 +7156,22 @@
         <v>42167</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="28280" windowHeight="16460" activeTab="3"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="28275" windowHeight="16455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -12,20 +17,20 @@
     <sheet name="SOMcre" sheetId="5" r:id="rId3"/>
     <sheet name="Experiment Notes" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="231">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -595,6 +600,129 @@
   </si>
   <si>
     <t>Injected 100 nl of virus into V1 at 350 um depth, 2.56 mm left of lambda, anterior to the lamboid suture.</t>
+  </si>
+  <si>
+    <t>p2s1</t>
+  </si>
+  <si>
+    <t>p2s2</t>
+  </si>
+  <si>
+    <t>p2s3</t>
+  </si>
+  <si>
+    <t>p2s4</t>
+  </si>
+  <si>
+    <t>p2s5</t>
+  </si>
+  <si>
+    <t>p2s6</t>
+  </si>
+  <si>
+    <t>p3s1</t>
+  </si>
+  <si>
+    <t>p3s2</t>
+  </si>
+  <si>
+    <t>p3s3</t>
+  </si>
+  <si>
+    <t>p3s4</t>
+  </si>
+  <si>
+    <t>p3s5</t>
+  </si>
+  <si>
+    <t>p3s6</t>
+  </si>
+  <si>
+    <t>p4s1</t>
+  </si>
+  <si>
+    <t>p4s2</t>
+  </si>
+  <si>
+    <t>p4s3</t>
+  </si>
+  <si>
+    <t>p4s4</t>
+  </si>
+  <si>
+    <t>p4s5</t>
+  </si>
+  <si>
+    <t>p4s6</t>
+  </si>
+  <si>
+    <t>p5s1</t>
+  </si>
+  <si>
+    <t>p5s2</t>
+  </si>
+  <si>
+    <t>p5s3</t>
+  </si>
+  <si>
+    <t>p5s4</t>
+  </si>
+  <si>
+    <t>p5s5</t>
+  </si>
+  <si>
+    <t>p5s6</t>
+  </si>
+  <si>
+    <t>p6s1</t>
+  </si>
+  <si>
+    <t>p6s2</t>
+  </si>
+  <si>
+    <t>p6s3</t>
+  </si>
+  <si>
+    <t>p6s4</t>
+  </si>
+  <si>
+    <t>p6s5</t>
+  </si>
+  <si>
+    <t>p6s6</t>
+  </si>
+  <si>
+    <t>lateral areas</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>medial areas</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s1_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p4s2_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p5s6_RL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p6s1_RL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p6s2_RL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_A_p6s3_RL_cropped.mat</t>
   </si>
 </sst>
 </file>
@@ -668,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -711,6 +839,15 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,7 +1126,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,23 +1140,23 @@
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1185,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1214,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1106,7 +1243,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1272,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1301,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1330,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1359,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1388,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1417,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1444,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1472,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1364,7 +1501,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1530,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1559,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1588,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1617,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1646,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1675,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1704,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1596,7 +1733,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1762,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1789,7 @@
       <c r="J22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1680,7 +1817,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1846,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1738,7 +1875,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1904,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1933,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1962,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1991,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1883,7 +2020,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +2049,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1941,7 +2078,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1970,7 +2107,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +2135,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2164,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2056,7 +2193,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2085,7 +2222,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2251,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2143,7 +2280,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2172,7 +2309,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2201,7 +2338,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2230,7 +2367,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2259,7 +2396,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2425,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2317,7 +2454,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2346,7 +2483,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2375,7 +2512,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2404,7 +2541,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2570,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2462,7 +2599,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2491,7 +2628,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2520,7 +2657,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2549,7 +2686,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2578,7 +2715,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2607,7 +2744,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2636,7 +2773,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2665,7 +2802,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2694,7 +2831,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2723,7 +2860,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2752,7 +2889,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2781,7 +2918,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2810,7 +2947,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2838,7 +2975,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +3004,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2896,7 +3033,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +3062,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2954,7 +3091,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +3120,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3149,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -3041,7 +3178,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -3070,7 +3207,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3099,7 +3236,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -3128,7 +3265,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -3157,7 +3294,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3186,7 +3323,7 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -3215,7 +3352,7 @@
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3244,7 +3381,7 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -3273,7 +3410,7 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -3302,7 +3439,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3331,7 +3468,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -3360,220 +3497,220 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M94" s="4"/>
     </row>
-    <row r="99" spans="13:13">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="13:13">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="13:13">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="13:13">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="13:13">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="13:13">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="13:13">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="13:13">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="13:13">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="13:13">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="13:13">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="13:13">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="13:13">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="13:13">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="13:13">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="13:13">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="13:13">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="13:13">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="13:13">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="13:13">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="13:13">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="13:13">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M120" s="4"/>
     </row>
-    <row r="121" spans="13:13">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="13:13">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="13:13">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="13:13">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="13:13">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="13:13">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="13:13">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="13:13">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="13:13">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="13:13">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="13:13">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="13:13">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="13:13">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="13:13">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="13:13">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="13:13">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="13:13">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="13:13">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="13:13">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="13:13">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="13:13">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="13:13">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="13:13">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="13:13">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="13:13">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="13:13">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M146" s="4"/>
     </row>
-    <row r="147" spans="13:13">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="13:13">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="13:13">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="13:13">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="13:13">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="13:13">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M152" s="4"/>
     </row>
-    <row r="153" spans="13:13">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M153" s="4"/>
     </row>
-    <row r="154" spans="13:13">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="13:13">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="13:13">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="13:13">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="13:13">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="13:13">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="13:13">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M160" s="4"/>
     </row>
-    <row r="161" spans="13:13">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="13:13">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M162" s="4"/>
     </row>
   </sheetData>
@@ -3591,26 +3728,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="12" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3775,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3804,7 @@
       <c r="K2" s="4"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -3695,7 +3832,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -3723,7 +3860,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3887,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3915,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
@@ -3806,7 +3943,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3971,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
@@ -3862,7 +3999,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -3889,7 +4026,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
@@ -3913,7 +4050,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
@@ -3940,7 +4077,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +4104,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -3995,7 +4132,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -4023,7 +4160,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4188,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -4079,7 +4216,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4243,7 @@
       <c r="I18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -4134,7 +4271,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -4162,7 +4299,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -4190,7 +4327,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -4217,7 +4354,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -4243,7 +4380,7 @@
       <c r="H23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -4270,7 +4407,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -4298,7 +4435,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -4326,7 +4463,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4491,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -4382,7 +4519,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -4410,7 +4547,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>18</v>
       </c>
@@ -4438,7 +4575,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>18</v>
       </c>
@@ -4466,7 +4603,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>18</v>
       </c>
@@ -4494,7 +4631,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>18</v>
       </c>
@@ -4522,7 +4659,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>18</v>
       </c>
@@ -4550,7 +4687,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>18</v>
       </c>
@@ -4578,7 +4715,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>18</v>
       </c>
@@ -4606,7 +4743,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
@@ -4633,7 +4770,7 @@
       <c r="I37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>18</v>
       </c>
@@ -4660,7 +4797,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>18</v>
       </c>
@@ -4687,7 +4824,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>18</v>
       </c>
@@ -4714,7 +4851,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
@@ -4741,7 +4878,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
@@ -4768,7 +4905,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
@@ -4795,7 +4932,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
@@ -4822,7 +4959,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>18</v>
       </c>
@@ -4849,7 +4986,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>19</v>
       </c>
@@ -4877,7 +5014,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>19</v>
       </c>
@@ -4905,7 +5042,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
@@ -4932,7 +5069,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +5096,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>19</v>
       </c>
@@ -4987,7 +5124,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>19</v>
       </c>
@@ -5015,7 +5152,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5180,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>19</v>
       </c>
@@ -5071,7 +5208,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>19</v>
       </c>
@@ -5098,7 +5235,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>19</v>
       </c>
@@ -5124,7 +5261,7 @@
       <c r="H55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>19</v>
       </c>
@@ -5151,7 +5288,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>19</v>
       </c>
@@ -5179,7 +5316,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" s="10" customFormat="1">
+    <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>76</v>
       </c>
@@ -5207,7 +5344,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" s="10" customFormat="1">
+    <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>76</v>
       </c>
@@ -5235,7 +5372,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="10" customFormat="1">
+    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>76</v>
       </c>
@@ -5263,7 +5400,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="10" customFormat="1">
+    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>76</v>
       </c>
@@ -5291,7 +5428,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>76</v>
       </c>
@@ -5315,7 +5452,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>76</v>
       </c>
@@ -5339,7 +5476,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>76</v>
       </c>
@@ -5363,7 +5500,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>76</v>
       </c>
@@ -5387,7 +5524,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="10" customFormat="1">
+    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>76</v>
       </c>
@@ -5411,7 +5548,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="10" customFormat="1">
+    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>76</v>
       </c>
@@ -5435,7 +5572,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="10" customFormat="1">
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>76</v>
       </c>
@@ -5459,7 +5596,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="10" customFormat="1">
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>76</v>
       </c>
@@ -5483,7 +5620,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="10" customFormat="1">
+    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>76</v>
       </c>
@@ -5507,7 +5644,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="10" customFormat="1">
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>76</v>
       </c>
@@ -5531,7 +5668,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="10" customFormat="1">
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>76</v>
       </c>
@@ -5555,7 +5692,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>76</v>
       </c>
@@ -5579,7 +5716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>76</v>
       </c>
@@ -5603,7 +5740,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>76</v>
       </c>
@@ -5627,7 +5764,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>76</v>
       </c>
@@ -5651,7 +5788,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="10" customFormat="1">
+    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>76</v>
       </c>
@@ -5675,7 +5812,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="10" customFormat="1">
+    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>76</v>
       </c>
@@ -5699,7 +5836,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="10" customFormat="1">
+    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>76</v>
       </c>
@@ -5723,7 +5860,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="10" customFormat="1">
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>76</v>
       </c>
@@ -5747,7 +5884,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="10" customFormat="1">
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>76</v>
       </c>
@@ -5771,7 +5908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>76</v>
       </c>
@@ -5795,7 +5932,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>76</v>
       </c>
@@ -5819,7 +5956,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>76</v>
       </c>
@@ -5843,7 +5980,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>76</v>
       </c>
@@ -5867,7 +6004,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>76</v>
       </c>
@@ -5891,7 +6028,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>76</v>
       </c>
@@ -5915,7 +6052,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>76</v>
       </c>
@@ -5939,7 +6076,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>76</v>
       </c>
@@ -5976,24 +6113,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -6021,7 +6158,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6045,7 +6182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -6062,14 +6199,14 @@
         <v>28</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F20" si="0">(E3-D3)*70</f>
+        <f t="shared" ref="F3:F34" si="0">(E3-D3)*70</f>
         <v>70</v>
       </c>
       <c r="G3" s="10">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -6093,7 +6230,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6117,7 +6254,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6141,7 +6278,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -6165,7 +6302,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6189,7 +6326,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6213,357 +6350,604 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="10">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10">
         <v>29</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="G10">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+        <v>700</v>
+      </c>
+      <c r="G10" s="10">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>23</v>
+      <c r="D11" s="10">
+        <v>20</v>
       </c>
       <c r="E11" s="10">
         <v>29</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="G11">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>630</v>
+      </c>
+      <c r="G11" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10">
+        <v>22</v>
+      </c>
+      <c r="E12">
         <v>29</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="G12">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10">
         <v>29</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G13">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="10">
         <v>29</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="G14">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10">
         <v>29</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="G15">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="10">
         <v>29</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="G16">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
       </c>
       <c r="E17" s="10">
         <v>29</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="G17">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
       </c>
       <c r="E18" s="10">
         <v>29</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10">
         <v>29</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="G19">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10">
         <v>29</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G20">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G21">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>25</v>
+      </c>
+      <c r="E22" s="10">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G22">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="10">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G23">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="10">
+        <v>22</v>
+      </c>
+      <c r="E24" s="10">
+        <v>29</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G24">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D25" s="10">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="D26" s="10">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10">
+        <v>29</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G26">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" s="10">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G27">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10">
+        <v>29</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G28">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" s="10">
+        <v>29</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G29">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" s="10">
+        <v>29</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="10">
+        <v>29</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+      <c r="G31">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="10">
+        <v>29</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>-140</v>
+      </c>
+      <c r="G32">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" s="10">
+        <v>29</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
+        <v>-210</v>
+      </c>
+      <c r="G33">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10">
+        <v>29</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>-280</v>
+      </c>
+      <c r="G34">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -6579,31 +6963,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A12" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="62" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="52.1640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="44.6640625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="6"/>
+    <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="52.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -6641,7 +7026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="62" customHeight="1">
+    <row r="2" spans="1:43" s="9" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6676,7 +7061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="62" customHeight="1">
+    <row r="3" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -6714,7 +7099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="62" customHeight="1">
+    <row r="4" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -6752,7 +7137,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="62" customHeight="1">
+    <row r="5" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -6787,7 +7172,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="62" customHeight="1">
+    <row r="6" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
@@ -6813,7 +7198,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="62" customHeight="1">
+    <row r="7" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -6848,7 +7233,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="62" customHeight="1">
+    <row r="8" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
@@ -6883,7 +7268,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="62" customHeight="1">
+    <row r="9" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -6921,7 +7306,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="62" customHeight="1">
+    <row r="10" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -6956,7 +7341,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="92" customHeight="1">
+    <row r="11" spans="1:43" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -6994,7 +7379,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="75" customHeight="1">
+    <row r="12" spans="1:43" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -7029,7 +7414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="62" customHeight="1">
+    <row r="13" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -7061,87 +7446,324 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="62" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="24">
         <v>42108</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="24">
         <v>42167</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="62" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="M14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB14" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD14" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE14" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF14" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG14" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH14" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI14" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK14" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM14" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN14" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO14" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP14" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ14" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="22">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD15" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ15" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM15" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ15" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ16" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="14">
-        <v>42108</v>
-      </c>
-      <c r="E15" s="14">
-        <v>42167</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="62" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="14">
-        <v>42108</v>
-      </c>
-      <c r="E16" s="14">
-        <v>42167</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="62" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>65</v>
@@ -7156,16 +7778,82 @@
         <v>42167</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="18" spans="1:12" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42108</v>
+      </c>
+      <c r="E18" s="14">
+        <v>42167</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42108</v>
+      </c>
+      <c r="E19" s="14">
+        <v>42167</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <extLst>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="243">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -723,14 +723,51 @@
   </si>
   <si>
     <t>layered_cellFillData_CH_150612_A_p6s3_RL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s1_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s1_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s2_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s3_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s4_AL_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p4s5_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p4s6_PM_cropped</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_C_p5s2_PM_cropped</t>
+  </si>
+  <si>
+    <t>Age at injection</t>
+  </si>
+  <si>
+    <t>Dentate</t>
+  </si>
+  <si>
+    <t>AP norm fact</t>
+  </si>
+  <si>
+    <t>ML norm fact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -796,7 +833,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -822,9 +859,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -844,12 +878,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1134,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,11 +1189,11 @@
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="27" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
@@ -1175,13 +1218,19 @@
       <c r="F1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="26"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
@@ -1205,11 +1254,19 @@
         <f>(E2-D2)*70</f>
         <v>350</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>880</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" s="27">
+        <f>(E2-H2)*70</f>
+        <v>1470</v>
+      </c>
+      <c r="J2" s="27">
+        <v>1190</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1234,11 +1291,19 @@
         <f>(E3-D3)*70</f>
         <v>280</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>880</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="10">
+        <v>17</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I66" si="0">(E3-H3)*70</f>
+        <v>1470</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1190</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1260,14 +1325,22 @@
         <v>38</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F67" si="0">(E4-D4)*70</f>
+        <f t="shared" ref="F4:F63" si="1">(E4-D4)*70</f>
         <v>210</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>880</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="10">
+        <v>17</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1190</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1289,14 +1362,22 @@
         <v>38</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>880</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="10">
+        <v>17</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1190</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1318,14 +1399,22 @@
         <v>38</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>404</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="10">
+        <v>17</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1190</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1347,14 +1436,22 @@
         <v>38</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>404</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="10">
+        <v>17</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1190</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1376,14 +1473,22 @@
         <v>38</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>404</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="10">
+        <v>17</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1190</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1405,14 +1510,22 @@
         <v>38</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>404</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="10">
+        <v>17</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1190</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1434,13 +1547,22 @@
         <v>38</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="G10" s="20">
-        <v>1100</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="G10" s="19">
+        <v>1180</v>
+      </c>
+      <c r="H10" s="10">
+        <v>17</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1190</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
@@ -1461,14 +1583,22 @@
         <v>38</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G11" s="20">
-        <v>1100</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="19">
+        <v>1180</v>
+      </c>
+      <c r="H11" s="10">
+        <v>17</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1190</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
@@ -1489,14 +1619,22 @@
         <v>38</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G12" s="20">
-        <v>1100</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="G12" s="19">
+        <v>1180</v>
+      </c>
+      <c r="H12" s="10">
+        <v>17</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1190</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1518,14 +1656,22 @@
         <v>38</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G13" s="20">
-        <v>1100</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="19">
+        <v>1180</v>
+      </c>
+      <c r="H13" s="10">
+        <v>17</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1190</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1547,14 +1693,22 @@
         <v>35</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>742</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="H14">
+        <v>14.5</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1115</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1576,14 +1730,22 @@
         <v>35</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>742</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1115</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1605,14 +1767,22 @@
         <v>35</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>742</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J16" s="27">
+        <v>1115</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1634,14 +1804,22 @@
         <v>35</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>742</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J17" s="27">
+        <v>1115</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1663,14 +1841,22 @@
         <v>35</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>371</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1115</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1692,14 +1878,22 @@
         <v>35</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>371</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="H19" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1115</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1721,14 +1915,22 @@
         <v>35</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>371</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="H20" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1115</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1750,14 +1952,22 @@
         <v>35</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>371</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="H21" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J21" s="27">
+        <v>1115</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1779,14 +1989,22 @@
         <v>35</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>1090</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1115</v>
+      </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1806,13 +2024,22 @@
         <v>35</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>1090</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="H23" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J23" s="27">
+        <v>1115</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1834,14 +2061,22 @@
         <v>35</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>1090</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J24" s="27">
+        <v>1115</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1863,14 +2098,22 @@
         <v>35</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>1090</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="J25" s="27">
+        <v>1115</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1892,14 +2135,22 @@
         <v>35</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>812</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J26" s="27">
+        <v>1155</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1921,14 +2172,22 @@
         <v>35</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>812</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="10">
+        <v>15</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J27" s="27">
+        <v>1155</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1950,14 +2209,22 @@
         <v>35</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>812</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="10">
+        <v>15</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1155</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -1979,14 +2246,22 @@
         <v>35</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>812</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="10">
+        <v>15</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J29" s="27">
+        <v>1155</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2008,14 +2283,22 @@
         <v>35</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>370</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="10">
+        <v>15</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J30" s="27">
+        <v>1155</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2037,14 +2320,22 @@
         <v>35</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>370</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="10">
+        <v>15</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1155</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2066,14 +2357,22 @@
         <v>35</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>370</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="10">
+        <v>15</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1155</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2095,14 +2394,22 @@
         <v>35</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>370</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="10">
+        <v>15</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J33" s="27">
+        <v>1155</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2124,13 +2431,22 @@
         <v>35</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="19">
         <v>1152</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="10">
+        <v>15</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J34" s="27">
+        <v>1155</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2152,14 +2468,22 @@
         <v>35</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>1152</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="H35" s="10">
+        <v>15</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J35" s="27">
+        <v>1155</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2181,14 +2505,22 @@
         <v>35</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>1152</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="H36" s="10">
+        <v>15</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J36" s="27">
+        <v>1155</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -2210,130 +2542,170 @@
         <v>35</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>1152</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="H37" s="10">
+        <v>15</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J37" s="27">
+        <v>1155</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
       </c>
       <c r="E38" s="10">
         <v>35</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="G38" s="20">
-        <v>802</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="G38" s="19">
+        <v>880</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="I38" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J38" s="27">
+        <v>1176</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
         <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39">
-        <v>31</v>
       </c>
       <c r="E39" s="10">
         <v>35</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="G39" s="20">
-        <v>802</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="G39" s="19">
+        <v>880</v>
+      </c>
+      <c r="H39" s="10">
+        <v>12</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J39" s="27">
+        <v>1176</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40">
-        <v>32</v>
       </c>
       <c r="E40" s="10">
         <v>35</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G40" s="20">
-        <v>802</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G40" s="19">
+        <v>880</v>
+      </c>
+      <c r="H40" s="10">
+        <v>12</v>
+      </c>
+      <c r="I40" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J40" s="27">
+        <v>1176</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
         <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41">
-        <v>33</v>
       </c>
       <c r="E41" s="10">
         <v>35</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="G41" s="20">
-        <v>802</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="G41" s="19">
+        <v>880</v>
+      </c>
+      <c r="H41" s="10">
+        <v>12</v>
+      </c>
+      <c r="I41" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1176</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2346,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -2355,14 +2727,22 @@
         <v>35</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="G42" s="20">
-        <v>880</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="G42" s="19">
+        <v>430</v>
+      </c>
+      <c r="H42" s="10">
+        <v>12</v>
+      </c>
+      <c r="I42" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J42" s="27">
+        <v>1176</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2375,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>24</v>
@@ -2384,14 +2764,22 @@
         <v>35</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
-      <c r="G43" s="20">
-        <v>880</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="G43" s="19">
+        <v>430</v>
+      </c>
+      <c r="H43" s="10">
+        <v>12</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J43" s="27">
+        <v>1176</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2404,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>25</v>
@@ -2413,14 +2801,22 @@
         <v>35</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G44" s="20">
-        <v>880</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="G44" s="19">
+        <v>430</v>
+      </c>
+      <c r="H44" s="10">
+        <v>12</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J44" s="27">
+        <v>1176</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2433,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>26</v>
@@ -2442,14 +2838,22 @@
         <v>35</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="G45" s="20">
-        <v>880</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="G45" s="19">
+        <v>430</v>
+      </c>
+      <c r="H45" s="10">
+        <v>12</v>
+      </c>
+      <c r="I45" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1176</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2459,26 +2863,34 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E46" s="10">
         <v>35</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="G46" s="20">
-        <v>430</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G46" s="19">
+        <v>790</v>
+      </c>
+      <c r="H46" s="10">
+        <v>12</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J46" s="27">
+        <v>1176</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2488,26 +2900,34 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E47" s="10">
         <v>35</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="G47" s="20">
-        <v>430</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G47" s="19">
+        <v>790</v>
+      </c>
+      <c r="H47" s="10">
+        <v>12</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J47" s="27">
+        <v>1176</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -2517,26 +2937,34 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E48" s="10">
         <v>35</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="G48" s="20">
-        <v>430</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>790</v>
+      </c>
+      <c r="H48" s="10">
+        <v>12</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J48" s="27">
+        <v>1176</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2546,142 +2974,182 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E49" s="10">
         <v>35</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="G49" s="20">
-        <v>430</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+      <c r="G49" s="19">
+        <v>790</v>
+      </c>
+      <c r="H49" s="10">
+        <v>12</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J49" s="27">
+        <v>1176</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>26</v>
       </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50">
-        <v>33</v>
-      </c>
-      <c r="E50" s="10">
-        <v>35</v>
+      <c r="E50">
+        <v>36</v>
       </c>
       <c r="F50" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="G50" s="20">
-        <v>790</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G50" s="19">
+        <v>880</v>
+      </c>
+      <c r="H50">
+        <v>11.5</v>
+      </c>
+      <c r="I50" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J50" s="27">
+        <v>1200</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E51" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G51" s="20">
-        <v>790</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="G51" s="19">
+        <v>880</v>
+      </c>
+      <c r="H51" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I51" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J51" s="27">
+        <v>1200</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E52" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="20">
-        <v>790</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="G52" s="19">
+        <v>880</v>
+      </c>
+      <c r="H52" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I52" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J52" s="27">
+        <v>1200</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D53">
+        <v>29</v>
+      </c>
+      <c r="E53" s="10">
         <v>36</v>
       </c>
-      <c r="E53" s="10">
-        <v>35</v>
-      </c>
       <c r="F53" s="10">
-        <f t="shared" si="0"/>
-        <v>-70</v>
-      </c>
-      <c r="G53" s="20">
-        <v>790</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="G53" s="19">
+        <v>880</v>
+      </c>
+      <c r="H53" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I53" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J53" s="27">
+        <v>1200</v>
+      </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -2691,26 +3159,34 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>26</v>
-      </c>
-      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="E54" s="10">
         <v>36</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="G54" s="20">
-        <v>880</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="G54" s="19">
+        <v>440</v>
+      </c>
+      <c r="H54" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I54" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J54" s="27">
+        <v>1200</v>
+      </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -2720,26 +3196,34 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E55" s="10">
         <v>36</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="G55" s="20">
-        <v>880</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+        <f t="shared" si="1"/>
+        <v>980</v>
+      </c>
+      <c r="G55" s="19">
+        <v>440</v>
+      </c>
+      <c r="H55" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I55" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J55" s="27">
+        <v>1200</v>
+      </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -2749,26 +3233,34 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10">
         <v>36</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="G56" s="20">
-        <v>880</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="G56" s="19">
+        <v>440</v>
+      </c>
+      <c r="H56" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I56" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J56" s="27">
+        <v>1200</v>
+      </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -2778,26 +3270,34 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E57" s="10">
         <v>36</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="G57" s="20">
-        <v>880</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="G57" s="19">
+        <v>440</v>
+      </c>
+      <c r="H57" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I57" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J57" s="27">
+        <v>1200</v>
+      </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -2810,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>21</v>
@@ -2819,14 +3319,22 @@
         <v>36</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="G58" s="20">
-        <v>440</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="G58" s="19">
+        <v>1175</v>
+      </c>
+      <c r="H58" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I58" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J58" s="27">
+        <v>1200</v>
+      </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -2839,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>22</v>
@@ -2848,14 +3356,22 @@
         <v>36</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="G59" s="20">
-        <v>440</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="G59" s="19">
+        <v>1175</v>
+      </c>
+      <c r="H59" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I59" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1200</v>
+      </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -2868,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>23</v>
@@ -2877,14 +3393,22 @@
         <v>36</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
-      <c r="G60" s="20">
-        <v>440</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="G60" s="19">
+        <v>1175</v>
+      </c>
+      <c r="H60" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I60" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J60" s="27">
+        <v>1200</v>
+      </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -2897,7 +3421,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -2906,14 +3430,22 @@
         <v>36</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="G61" s="20">
-        <v>440</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="G61" s="19">
+        <v>1175</v>
+      </c>
+      <c r="H61" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I61" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J61" s="27">
+        <v>1200</v>
+      </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -2923,26 +3455,34 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E62" s="10">
         <v>36</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="G62" s="20">
-        <v>1175</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G62" s="19">
+        <v>830</v>
+      </c>
+      <c r="H62" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I62" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J62" s="27">
+        <v>1200</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -2952,25 +3492,34 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E63" s="10">
         <v>36</v>
       </c>
       <c r="F63" s="10">
-        <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-      <c r="G63" s="20">
-        <v>1175</v>
-      </c>
-      <c r="I63" s="4"/>
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G63" s="19">
+        <v>830</v>
+      </c>
+      <c r="H63" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I63" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J63" s="27">
+        <v>1200</v>
+      </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -2980,26 +3529,34 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D64">
-        <v>23</v>
-      </c>
-      <c r="E64" s="10">
+        <v>33</v>
+      </c>
+      <c r="E64">
         <v>36</v>
       </c>
       <c r="F64" s="10">
-        <f t="shared" si="0"/>
-        <v>910</v>
-      </c>
-      <c r="G64" s="20">
-        <v>1175</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+        <f t="shared" ref="F64:F77" si="2">(E64-D64)*70</f>
+        <v>210</v>
+      </c>
+      <c r="G64" s="19">
+        <v>830</v>
+      </c>
+      <c r="H64" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I64" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J64" s="27">
+        <v>1200</v>
+      </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -3009,142 +3566,182 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D65">
-        <v>24</v>
-      </c>
-      <c r="E65" s="10">
+        <v>34</v>
+      </c>
+      <c r="E65">
         <v>36</v>
       </c>
       <c r="F65" s="10">
-        <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="G65" s="20">
-        <v>1175</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="G65" s="19">
+        <v>830</v>
+      </c>
+      <c r="H65" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="I65" s="27">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="J65" s="27">
+        <v>1200</v>
+      </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>31</v>
-      </c>
-      <c r="E66" s="10">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>32</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="G66" s="20">
-        <v>830</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="G66" s="19">
+        <v>844</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J66" s="27">
+        <v>1190</v>
+      </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D67">
+        <v>22</v>
+      </c>
+      <c r="E67">
         <v>32</v>
       </c>
-      <c r="E67" s="10">
-        <v>36</v>
-      </c>
       <c r="F67" s="10">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="G67" s="20">
-        <v>830</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="G67" s="19">
+        <v>844</v>
+      </c>
+      <c r="H67" s="10">
+        <v>12</v>
+      </c>
+      <c r="I67" s="27">
+        <f t="shared" ref="I67:I77" si="3">(E67-H67)*70</f>
+        <v>1400</v>
+      </c>
+      <c r="J67" s="27">
+        <v>1190</v>
+      </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>33</v>
-      </c>
-      <c r="E68">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E68" s="10">
+        <v>32</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" ref="F68:F81" si="1">(E68-D68)*70</f>
-        <v>210</v>
-      </c>
-      <c r="G68" s="20">
-        <v>830</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="G68" s="19">
+        <v>844</v>
+      </c>
+      <c r="H68" s="10">
+        <v>12</v>
+      </c>
+      <c r="I68" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J68" s="27">
+        <v>1190</v>
+      </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>34</v>
-      </c>
-      <c r="E69">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E69" s="10">
+        <v>32</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="G69" s="20">
-        <v>830</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="G69" s="19">
+        <v>844</v>
+      </c>
+      <c r="H69" s="10">
+        <v>12</v>
+      </c>
+      <c r="I69" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J69" s="27">
+        <v>1190</v>
+      </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -3154,26 +3751,34 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="E70" s="10">
         <v>32</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" si="1"/>
-        <v>770</v>
-      </c>
-      <c r="G70" s="20">
-        <v>844</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="G70" s="19">
+        <v>440</v>
+      </c>
+      <c r="H70" s="10">
+        <v>12</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J70" s="27">
+        <v>1190</v>
+      </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -3183,26 +3788,34 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
+        <v>27</v>
+      </c>
+      <c r="E71" s="10">
         <v>32</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="G71" s="20">
-        <v>844</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="G71" s="19">
+        <v>440</v>
+      </c>
+      <c r="H71" s="10">
+        <v>12</v>
+      </c>
+      <c r="I71" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J71" s="27">
+        <v>1190</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -3212,26 +3825,34 @@
         <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E72" s="10">
         <v>32</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="G72" s="20">
-        <v>844</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="G72" s="19">
+        <v>440</v>
+      </c>
+      <c r="H72" s="10">
+        <v>12</v>
+      </c>
+      <c r="I72" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J72" s="27">
+        <v>1190</v>
+      </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -3241,26 +3862,34 @@
         <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E73" s="10">
         <v>32</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="G73" s="20">
-        <v>844</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="G73" s="19">
+        <v>440</v>
+      </c>
+      <c r="H73" s="10">
+        <v>12</v>
+      </c>
+      <c r="I73" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J73" s="27">
+        <v>1190</v>
+      </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -3270,26 +3899,34 @@
         <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E74" s="10">
         <v>32</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="G74" s="20">
-        <v>440</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1148</v>
+      </c>
+      <c r="H74" s="10">
+        <v>12</v>
+      </c>
+      <c r="I74" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J74" s="27">
+        <v>1190</v>
+      </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -3299,26 +3936,34 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E75" s="10">
         <v>32</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="G75" s="20">
-        <v>440</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1148</v>
+      </c>
+      <c r="H75" s="10">
+        <v>12</v>
+      </c>
+      <c r="I75" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J75" s="27">
+        <v>1190</v>
+      </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -3328,26 +3973,34 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E76" s="10">
         <v>32</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="G76" s="20">
-        <v>440</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1148</v>
+      </c>
+      <c r="H76" s="10">
+        <v>12</v>
+      </c>
+      <c r="I76" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J76" s="27">
+        <v>1190</v>
+      </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -3357,169 +4010,73 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E77" s="10">
         <v>32</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="G77" s="20">
-        <v>440</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1148</v>
+      </c>
+      <c r="H77" s="10">
+        <v>12</v>
+      </c>
+      <c r="I77" s="27">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="J77" s="27">
+        <v>1190</v>
+      </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>23</v>
-      </c>
-      <c r="E78" s="10">
-        <v>32</v>
-      </c>
-      <c r="F78" s="10">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="G78" s="20">
-        <v>1148</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79">
-        <v>24</v>
-      </c>
-      <c r="E79" s="10">
-        <v>32</v>
-      </c>
-      <c r="F79" s="10">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="G79" s="20">
-        <v>1148</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>25</v>
-      </c>
-      <c r="E80" s="10">
-        <v>32</v>
-      </c>
-      <c r="F80" s="10">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="G80" s="20">
-        <v>1148</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>26</v>
-      </c>
-      <c r="E81" s="10">
-        <v>32</v>
-      </c>
-      <c r="F81" s="10">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="G81" s="20">
-        <v>1148</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M94" s="4"/>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M98" s="4"/>
     </row>
     <row r="99" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M99" s="4"/>
@@ -3700,18 +4257,6 @@
     </row>
     <row r="158" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M160" s="4"/>
-    </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M161" s="4"/>
-    </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M162" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3728,27 +4273,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J58" sqref="J58:J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13" style="27" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3757,26 +4302,32 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>242</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3785,27 +4336,34 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>25</v>
       </c>
       <c r="E2" s="10">
         <v>39</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <f>(E2-D2) * 70</f>
         <v>980</v>
       </c>
       <c r="G2" s="10">
         <v>902</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="19">
+        <v>19</v>
+      </c>
+      <c r="I2" s="27">
+        <f>(E2-H2)*70</f>
+        <v>1400</v>
+      </c>
+      <c r="J2" s="27">
+        <v>1185</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3814,26 +4372,33 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>26</v>
       </c>
       <c r="E3">
         <v>39</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>(E3-D3) * 70</f>
         <v>910</v>
       </c>
       <c r="G3">
         <v>902</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="19">
+        <v>19</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I66" si="0">(E3-H3)*70</f>
+        <v>1400</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1185</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3842,26 +4407,33 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>27</v>
       </c>
       <c r="E4" s="10">
         <v>39</v>
       </c>
-      <c r="F4" s="20">
-        <f t="shared" ref="F4:F67" si="0">(E4-D4) * 70</f>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F67" si="1">(E4-D4) * 70</f>
         <v>840</v>
       </c>
       <c r="G4" s="10">
         <v>902</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="19">
+        <v>19</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1185</v>
+      </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3870,25 +4442,32 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>28</v>
       </c>
       <c r="E5" s="10">
         <v>39</v>
       </c>
-      <c r="F5" s="20">
-        <f t="shared" si="0"/>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="G5" s="10">
         <v>902</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="19">
+        <v>19</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1185</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3897,26 +4476,33 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>23</v>
       </c>
       <c r="E6" s="10">
         <v>39</v>
       </c>
-      <c r="F6" s="20">
-        <f t="shared" si="0"/>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
       <c r="G6">
         <v>390</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="19">
+        <v>19</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1185</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3925,26 +4511,33 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>24</v>
       </c>
       <c r="E7">
         <v>39</v>
       </c>
-      <c r="F7" s="20">
-        <f t="shared" si="0"/>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="G7">
         <v>390</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="19">
+        <v>19</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1185</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3953,26 +4546,33 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>25</v>
       </c>
       <c r="E8" s="10">
         <v>39</v>
       </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G8" s="10">
         <v>390</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="19">
+        <v>19</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1185</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3981,26 +4581,33 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>26</v>
       </c>
       <c r="E9" s="10">
         <v>39</v>
       </c>
-      <c r="F9" s="20">
-        <f t="shared" si="0"/>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G9" s="10">
         <v>390</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="19">
+        <v>19</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1185</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4009,25 +4616,33 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>24</v>
       </c>
       <c r="E10" s="10">
         <v>39</v>
       </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="G10" s="10">
-        <v>1206</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
+        <v>1170</v>
+      </c>
+      <c r="H10" s="19">
+        <v>19</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1185</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4036,22 +4651,32 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>25</v>
       </c>
       <c r="E11">
         <v>39</v>
       </c>
-      <c r="F11" s="20">
-        <f t="shared" si="0"/>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="G11">
-        <v>1206</v>
+      <c r="G11" s="10">
+        <v>1170</v>
+      </c>
+      <c r="H11" s="19">
+        <v>19</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1185</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4060,25 +4685,33 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>26</v>
       </c>
       <c r="E12" s="10">
         <v>39</v>
       </c>
-      <c r="F12" s="20">
-        <f t="shared" si="0"/>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G12" s="10">
-        <v>1206</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>1170</v>
+      </c>
+      <c r="H12" s="19">
+        <v>19</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1185</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4087,25 +4720,33 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>27</v>
       </c>
       <c r="E13" s="10">
         <v>39</v>
       </c>
-      <c r="F13" s="20">
-        <f t="shared" si="0"/>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="G13" s="10">
-        <v>1206</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
+        <v>1170</v>
+      </c>
+      <c r="H13" s="19">
+        <v>19</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1185</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4114,26 +4755,33 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>19</v>
       </c>
       <c r="E14" s="10">
         <v>33</v>
       </c>
-      <c r="F14" s="20">
-        <f t="shared" si="0"/>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G14" s="10">
         <v>954</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="H14" s="19">
+        <v>16</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1200</v>
+      </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4142,26 +4790,33 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>20</v>
       </c>
       <c r="E15">
         <v>33</v>
       </c>
-      <c r="F15" s="20">
-        <f t="shared" si="0"/>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G15">
         <v>954</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="19">
+        <v>16</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1200</v>
+      </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4170,26 +4825,33 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>21</v>
       </c>
       <c r="E16" s="10">
         <v>33</v>
       </c>
-      <c r="F16" s="20">
-        <f t="shared" si="0"/>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="G16" s="10">
         <v>954</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="19">
+        <v>16</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J16" s="27">
+        <v>1200</v>
+      </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4198,26 +4860,33 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>22</v>
       </c>
       <c r="E17" s="10">
         <v>33</v>
       </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="G17" s="10">
         <v>954</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="19">
+        <v>16</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J17" s="27">
+        <v>1200</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4226,25 +4895,33 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>17</v>
       </c>
       <c r="E18" s="10">
         <v>33</v>
       </c>
-      <c r="F18" s="20">
-        <f t="shared" si="0"/>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
       <c r="G18" s="10">
         <v>425</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="19">
+        <v>16</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1200</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4253,26 +4930,33 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>18</v>
       </c>
       <c r="E19">
         <v>33</v>
       </c>
-      <c r="F19" s="20">
-        <f t="shared" si="0"/>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="G19">
         <v>425</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="H19" s="19">
+        <v>16</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1200</v>
+      </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4281,26 +4965,33 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>19</v>
       </c>
       <c r="E20" s="10">
         <v>33</v>
       </c>
-      <c r="F20" s="20">
-        <f t="shared" si="0"/>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G20" s="10">
         <v>425</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="H20" s="19">
+        <v>16</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1200</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4309,26 +5000,33 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>20</v>
       </c>
       <c r="E21" s="10">
         <v>33</v>
       </c>
-      <c r="F21" s="20">
-        <f t="shared" si="0"/>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G21" s="10">
         <v>425</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="H21" s="19">
+        <v>16</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J21" s="27">
+        <v>1200</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4337,25 +5035,33 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>19</v>
       </c>
       <c r="E22" s="10">
         <v>33</v>
       </c>
-      <c r="F22" s="20">
-        <f t="shared" si="0"/>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G22" s="10">
         <v>1185</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="19">
+        <v>16</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1200</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4364,24 +5070,33 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>20</v>
       </c>
       <c r="E23">
         <v>33</v>
       </c>
-      <c r="F23" s="20">
-        <f t="shared" si="0"/>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G23">
         <v>1185</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="19">
+        <v>16</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J23" s="27">
+        <v>1200</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4390,25 +5105,33 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>21</v>
       </c>
       <c r="E24" s="10">
         <v>33</v>
       </c>
-      <c r="F24" s="20">
-        <f t="shared" si="0"/>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="G24" s="10">
         <v>1185</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="19">
+        <v>16</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J24" s="27">
+        <v>1200</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4417,26 +5140,33 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>22</v>
       </c>
       <c r="E25" s="10">
         <v>33</v>
       </c>
-      <c r="F25" s="20">
-        <f t="shared" si="0"/>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="G25" s="10">
         <v>1185</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="19">
+        <v>16</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J25" s="27">
+        <v>1200</v>
+      </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4445,26 +5175,33 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>31</v>
       </c>
       <c r="E26" s="10">
         <v>33</v>
       </c>
-      <c r="F26" s="20">
-        <f t="shared" si="0"/>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="G26" s="10">
         <v>790</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="H26" s="19">
+        <v>16</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J26" s="27">
+        <v>1200</v>
+      </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4473,26 +5210,33 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>32</v>
       </c>
       <c r="E27">
         <v>33</v>
       </c>
-      <c r="F27" s="20">
-        <f t="shared" si="0"/>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G27">
         <v>790</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="19">
+        <v>16</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J27" s="27">
+        <v>1200</v>
+      </c>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4501,26 +5245,33 @@
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>33</v>
       </c>
       <c r="E28" s="10">
         <v>33</v>
       </c>
-      <c r="F28" s="20">
-        <f t="shared" si="0"/>
+      <c r="F28" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="10">
         <v>790</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="19">
+        <v>16</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1200</v>
+      </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4529,26 +5280,33 @@
       <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>34</v>
       </c>
       <c r="E29" s="10">
         <v>33</v>
       </c>
-      <c r="F29" s="20">
-        <f t="shared" si="0"/>
+      <c r="F29" s="19">
+        <f t="shared" si="1"/>
         <v>-70</v>
       </c>
       <c r="G29" s="10">
         <v>790</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="19">
+        <v>16</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="J29" s="27">
+        <v>1200</v>
+      </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4557,26 +5315,33 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>25</v>
       </c>
       <c r="E30" s="10">
         <v>37</v>
       </c>
-      <c r="F30" s="20">
-        <f t="shared" si="0"/>
+      <c r="F30" s="19">
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="G30" s="10">
         <v>867</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="19">
+        <v>15</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J30" s="27">
+        <v>1160</v>
+      </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4585,26 +5350,33 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>26</v>
       </c>
       <c r="E31">
         <v>37</v>
       </c>
-      <c r="F31" s="20">
-        <f t="shared" si="0"/>
+      <c r="F31" s="19">
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="G31">
         <v>867</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="19">
+        <v>15</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1160</v>
+      </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4613,26 +5385,33 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>27</v>
       </c>
       <c r="E32" s="10">
         <v>37</v>
       </c>
-      <c r="F32" s="20">
-        <f t="shared" si="0"/>
+      <c r="F32" s="19">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="G32" s="10">
         <v>867</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="19">
+        <v>15</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1160</v>
+      </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4641,26 +5420,33 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>28</v>
       </c>
       <c r="E33" s="10">
         <v>37</v>
       </c>
-      <c r="F33" s="20">
-        <f t="shared" si="0"/>
+      <c r="F33" s="19">
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="G33" s="10">
         <v>867</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="19">
+        <v>15</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J33" s="27">
+        <v>1160</v>
+      </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4669,26 +5455,33 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>28</v>
       </c>
       <c r="E34" s="10">
         <v>37</v>
       </c>
-      <c r="F34" s="20">
-        <f t="shared" si="0"/>
+      <c r="F34" s="19">
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="G34" s="10">
         <v>403</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="19">
+        <v>15</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J34" s="27">
+        <v>1160</v>
+      </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4697,26 +5490,33 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>29</v>
       </c>
       <c r="E35">
         <v>37</v>
       </c>
-      <c r="F35" s="20">
-        <f t="shared" si="0"/>
+      <c r="F35" s="19">
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="G35">
         <v>403</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="H35" s="19">
+        <v>15</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J35" s="27">
+        <v>1160</v>
+      </c>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4725,26 +5525,33 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>30</v>
       </c>
       <c r="E36" s="10">
         <v>37</v>
       </c>
-      <c r="F36" s="20">
-        <f t="shared" si="0"/>
+      <c r="F36" s="19">
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="G36" s="10">
         <v>403</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="H36" s="19">
+        <v>15</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J36" s="27">
+        <v>1160</v>
+      </c>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4753,25 +5560,33 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>31</v>
       </c>
       <c r="E37" s="10">
         <v>37</v>
       </c>
-      <c r="F37" s="20">
-        <f t="shared" si="0"/>
+      <c r="F37" s="19">
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="G37" s="10">
         <v>403</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="19">
+        <v>15</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J37" s="27">
+        <v>1160</v>
+      </c>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4780,25 +5595,33 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>27</v>
       </c>
       <c r="E38" s="10">
         <v>37</v>
       </c>
-      <c r="F38" s="20">
-        <f t="shared" si="0"/>
+      <c r="F38" s="19">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="G38" s="10">
         <v>1150</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="H38" s="19">
+        <v>15</v>
+      </c>
+      <c r="I38" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J38" s="27">
+        <v>1160</v>
+      </c>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4807,25 +5630,33 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>28</v>
       </c>
       <c r="E39">
         <v>37</v>
       </c>
-      <c r="F39" s="20">
-        <f t="shared" si="0"/>
+      <c r="F39" s="19">
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="G39">
         <v>1150</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="H39" s="19">
+        <v>15</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J39" s="27">
+        <v>1160</v>
+      </c>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4834,25 +5665,32 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>29</v>
       </c>
       <c r="E40" s="10">
         <v>37</v>
       </c>
-      <c r="F40" s="20">
-        <f t="shared" si="0"/>
+      <c r="F40" s="19">
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="G40" s="10">
         <v>1150</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="H40" s="19">
+        <v>15</v>
+      </c>
+      <c r="I40" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J40" s="27">
+        <v>1160</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4861,25 +5699,33 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>30</v>
       </c>
       <c r="E41" s="10">
         <v>37</v>
       </c>
-      <c r="F41" s="20">
-        <f t="shared" si="0"/>
+      <c r="F41" s="19">
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="G41" s="10">
         <v>1150</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="H41" s="19">
+        <v>15</v>
+      </c>
+      <c r="I41" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1160</v>
+      </c>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4888,25 +5734,33 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>33</v>
       </c>
       <c r="E42" s="10">
         <v>37</v>
       </c>
-      <c r="F42" s="20">
-        <f t="shared" si="0"/>
+      <c r="F42" s="19">
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="G42" s="10">
         <v>836</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="H42" s="19">
+        <v>15</v>
+      </c>
+      <c r="I42" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J42" s="27">
+        <v>1160</v>
+      </c>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4915,25 +5769,33 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>34</v>
       </c>
       <c r="E43">
         <v>37</v>
       </c>
-      <c r="F43" s="20">
-        <f t="shared" si="0"/>
+      <c r="F43" s="19">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="G43">
         <v>836</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="H43" s="19">
+        <v>15</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J43" s="27">
+        <v>1160</v>
+      </c>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4942,25 +5804,33 @@
       <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>35</v>
       </c>
       <c r="E44" s="10">
         <v>37</v>
       </c>
-      <c r="F44" s="20">
-        <f t="shared" si="0"/>
+      <c r="F44" s="19">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="G44" s="10">
         <v>836</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="H44" s="19">
+        <v>15</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J44" s="27">
+        <v>1160</v>
+      </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4969,25 +5839,33 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>36</v>
       </c>
       <c r="E45" s="10">
         <v>37</v>
       </c>
-      <c r="F45" s="20">
-        <f t="shared" si="0"/>
+      <c r="F45" s="19">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G45" s="10">
         <v>836</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="H45" s="19">
+        <v>15</v>
+      </c>
+      <c r="I45" s="27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1160</v>
+      </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4996,26 +5874,33 @@
       <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>24</v>
       </c>
       <c r="E46" s="10">
-        <v>38</v>
-      </c>
-      <c r="F46" s="20">
-        <f t="shared" si="0"/>
-        <v>980</v>
+        <v>39</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="1"/>
+        <v>1050</v>
       </c>
       <c r="G46" s="10">
         <v>898</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="H46" s="19">
+        <v>20</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J46" s="27">
+        <v>1235</v>
+      </c>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5024,26 +5909,33 @@
       <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>25</v>
       </c>
-      <c r="E47">
-        <v>38</v>
-      </c>
-      <c r="F47" s="20">
-        <f t="shared" si="0"/>
-        <v>910</v>
+      <c r="E47" s="10">
+        <v>39</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="1"/>
+        <v>980</v>
       </c>
       <c r="G47">
         <v>898</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="H47" s="19">
+        <v>20</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J47" s="27">
+        <v>1235</v>
+      </c>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -5052,25 +5944,32 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>26</v>
       </c>
       <c r="E48" s="10">
-        <v>38</v>
-      </c>
-      <c r="F48" s="20">
-        <f t="shared" si="0"/>
-        <v>840</v>
+        <v>39</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="1"/>
+        <v>910</v>
       </c>
       <c r="G48" s="10">
         <v>898</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="H48" s="19">
+        <v>20</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J48" s="27">
+        <v>1235</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5079,25 +5978,32 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>27</v>
       </c>
       <c r="E49" s="10">
-        <v>38</v>
-      </c>
-      <c r="F49" s="20">
-        <f t="shared" si="0"/>
-        <v>770</v>
+        <v>39</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="1"/>
+        <v>840</v>
       </c>
       <c r="G49" s="10">
         <v>898</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="H49" s="19">
+        <v>20</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J49" s="27">
+        <v>1235</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5106,26 +6012,33 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <v>30</v>
       </c>
       <c r="E50" s="10">
-        <v>38</v>
-      </c>
-      <c r="F50" s="20">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <v>39</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="1"/>
+        <v>630</v>
       </c>
       <c r="G50" s="10">
         <v>420</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="H50" s="19">
+        <v>20</v>
+      </c>
+      <c r="I50" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J50" s="27">
+        <v>1235</v>
+      </c>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5134,26 +6047,33 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <v>31</v>
       </c>
-      <c r="E51">
-        <v>38</v>
-      </c>
-      <c r="F51" s="20">
-        <f t="shared" si="0"/>
-        <v>490</v>
+      <c r="E51" s="10">
+        <v>39</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="1"/>
+        <v>560</v>
       </c>
       <c r="G51">
         <v>420</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="H51" s="19">
+        <v>20</v>
+      </c>
+      <c r="I51" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J51" s="27">
+        <v>1235</v>
+      </c>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5162,26 +6082,33 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>32</v>
       </c>
       <c r="E52" s="10">
-        <v>38</v>
-      </c>
-      <c r="F52" s="20">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>39</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="1"/>
+        <v>490</v>
       </c>
       <c r="G52" s="10">
         <v>420</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="19">
+        <v>20</v>
+      </c>
+      <c r="I52" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J52" s="27">
+        <v>1235</v>
+      </c>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5190,26 +6117,33 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>33</v>
       </c>
       <c r="E53" s="10">
-        <v>38</v>
-      </c>
-      <c r="F53" s="20">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <v>39</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="1"/>
+        <v>420</v>
       </c>
       <c r="G53" s="10">
         <v>420</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="H53" s="19">
+        <v>20</v>
+      </c>
+      <c r="I53" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J53" s="27">
+        <v>1235</v>
+      </c>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5218,25 +6152,33 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <v>28</v>
       </c>
       <c r="E54" s="10">
-        <v>38</v>
-      </c>
-      <c r="F54" s="20">
-        <f t="shared" si="0"/>
-        <v>700</v>
+        <v>39</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="1"/>
+        <v>770</v>
       </c>
       <c r="G54" s="10">
         <v>1208</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="H54" s="19">
+        <v>20</v>
+      </c>
+      <c r="I54" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J54" s="27">
+        <v>1235</v>
+      </c>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5245,24 +6187,33 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>29</v>
       </c>
-      <c r="E55">
-        <v>38</v>
-      </c>
-      <c r="F55" s="20">
-        <f t="shared" si="0"/>
-        <v>630</v>
+      <c r="E55" s="10">
+        <v>39</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="G55">
         <v>1208</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="19">
+        <v>20</v>
+      </c>
+      <c r="I55" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J55" s="27">
+        <v>1235</v>
+      </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5271,25 +6222,33 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>30</v>
       </c>
       <c r="E56" s="10">
-        <v>38</v>
-      </c>
-      <c r="F56" s="20">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <v>39</v>
+      </c>
+      <c r="F56" s="19">
+        <f t="shared" si="1"/>
+        <v>630</v>
       </c>
       <c r="G56" s="10">
         <v>1208</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="H56" s="19">
+        <v>20</v>
+      </c>
+      <c r="I56" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J56" s="27">
+        <v>1235</v>
+      </c>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5298,26 +6257,33 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>31</v>
       </c>
       <c r="E57" s="10">
-        <v>38</v>
-      </c>
-      <c r="F57" s="20">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <v>39</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="1"/>
+        <v>560</v>
       </c>
       <c r="G57" s="10">
         <v>1208</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="H57" s="19">
+        <v>20</v>
+      </c>
+      <c r="I57" s="27">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="J57" s="27">
+        <v>1235</v>
+      </c>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5326,26 +6292,33 @@
       <c r="C58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>25</v>
       </c>
       <c r="E58" s="10">
         <v>49</v>
       </c>
-      <c r="F58" s="20">
-        <f t="shared" si="0"/>
+      <c r="F58" s="19">
+        <f t="shared" si="1"/>
         <v>1680</v>
       </c>
       <c r="G58" s="10">
         <v>937</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="H58" s="19">
+        <v>21</v>
+      </c>
+      <c r="I58" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J58" s="27">
+        <v>1200</v>
+      </c>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5354,26 +6327,33 @@
       <c r="C59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>26</v>
       </c>
       <c r="E59" s="10">
         <v>49</v>
       </c>
-      <c r="F59" s="20">
-        <f t="shared" si="0"/>
+      <c r="F59" s="19">
+        <f t="shared" si="1"/>
         <v>1610</v>
       </c>
       <c r="G59" s="10">
         <v>927</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="H59" s="19">
+        <v>21</v>
+      </c>
+      <c r="I59" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1200</v>
+      </c>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5382,26 +6362,33 @@
       <c r="C60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>27</v>
       </c>
       <c r="E60" s="10">
         <v>49</v>
       </c>
-      <c r="F60" s="20">
-        <f t="shared" si="0"/>
+      <c r="F60" s="19">
+        <f t="shared" si="1"/>
         <v>1540</v>
       </c>
       <c r="G60" s="10">
         <v>950</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="H60" s="19">
+        <v>21</v>
+      </c>
+      <c r="I60" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J60" s="27">
+        <v>1200</v>
+      </c>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5410,26 +6397,33 @@
       <c r="C61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>28</v>
       </c>
       <c r="E61" s="10">
         <v>49</v>
       </c>
-      <c r="F61" s="20">
-        <f t="shared" si="0"/>
+      <c r="F61" s="19">
+        <f t="shared" si="1"/>
         <v>1470</v>
       </c>
       <c r="G61" s="10">
         <v>935</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="H61" s="19">
+        <v>21</v>
+      </c>
+      <c r="I61" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J61" s="27">
+        <v>1200</v>
+      </c>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5438,22 +6432,32 @@
       <c r="C62" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>29</v>
       </c>
       <c r="E62" s="10">
         <v>49</v>
       </c>
-      <c r="F62" s="20">
-        <f t="shared" si="0"/>
+      <c r="F62" s="19">
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="G62" s="10">
         <v>904</v>
       </c>
+      <c r="H62" s="19">
+        <v>21</v>
+      </c>
+      <c r="I62" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J62" s="27">
+        <v>1200</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5462,22 +6466,32 @@
       <c r="C63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>30</v>
       </c>
       <c r="E63" s="10">
         <v>49</v>
       </c>
-      <c r="F63" s="20">
-        <f t="shared" si="0"/>
+      <c r="F63" s="19">
+        <f t="shared" si="1"/>
         <v>1330</v>
       </c>
       <c r="G63" s="10">
         <v>940</v>
       </c>
+      <c r="H63" s="19">
+        <v>21</v>
+      </c>
+      <c r="I63" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J63" s="27">
+        <v>1200</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5486,22 +6500,32 @@
       <c r="C64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="19">
         <v>31</v>
       </c>
       <c r="E64" s="10">
         <v>49</v>
       </c>
-      <c r="F64" s="20">
-        <f t="shared" si="0"/>
+      <c r="F64" s="19">
+        <f t="shared" si="1"/>
         <v>1260</v>
       </c>
       <c r="G64">
         <v>920</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="H64" s="19">
+        <v>21</v>
+      </c>
+      <c r="I64" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J64" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5510,22 +6534,32 @@
       <c r="C65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="19">
         <v>32</v>
       </c>
       <c r="E65" s="10">
         <v>49</v>
       </c>
-      <c r="F65" s="20">
-        <f t="shared" si="0"/>
+      <c r="F65" s="19">
+        <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="G65">
         <v>910</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="H65" s="19">
+        <v>21</v>
+      </c>
+      <c r="I65" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J65" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5534,22 +6568,32 @@
       <c r="C66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>33</v>
       </c>
       <c r="E66" s="10">
         <v>49</v>
       </c>
-      <c r="F66" s="20">
-        <f t="shared" si="0"/>
+      <c r="F66" s="19">
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
       <c r="G66" s="10">
         <v>908</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="H66" s="19">
+        <v>21</v>
+      </c>
+      <c r="I66" s="27">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="J66" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5558,22 +6602,32 @@
       <c r="C67" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>34</v>
       </c>
       <c r="E67" s="10">
         <v>49</v>
       </c>
-      <c r="F67" s="20">
-        <f t="shared" si="0"/>
+      <c r="F67" s="19">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="G67" s="10">
         <v>891</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="H67" s="19">
+        <v>21</v>
+      </c>
+      <c r="I67" s="27">
+        <f t="shared" ref="I67:I89" si="2">(E67-H67)*70</f>
+        <v>1960</v>
+      </c>
+      <c r="J67" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5582,22 +6636,32 @@
       <c r="C68" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>35</v>
       </c>
       <c r="E68" s="10">
         <v>49</v>
       </c>
-      <c r="F68" s="20">
-        <f t="shared" ref="F68:F89" si="1">(E68-D68) * 70</f>
+      <c r="F68" s="19">
+        <f t="shared" ref="F68:F89" si="3">(E68-D68) * 70</f>
         <v>980</v>
       </c>
       <c r="G68" s="10">
         <v>895</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="H68" s="19">
+        <v>21</v>
+      </c>
+      <c r="I68" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J68" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5606,22 +6670,32 @@
       <c r="C69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>27</v>
       </c>
       <c r="E69" s="10">
         <v>49</v>
       </c>
-      <c r="F69" s="20">
-        <f t="shared" si="1"/>
+      <c r="F69" s="19">
+        <f t="shared" si="3"/>
         <v>1540</v>
       </c>
       <c r="G69" s="10">
         <v>376</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="H69" s="19">
+        <v>21</v>
+      </c>
+      <c r="I69" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J69" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5630,22 +6704,32 @@
       <c r="C70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>28</v>
       </c>
       <c r="E70" s="10">
         <v>49</v>
       </c>
-      <c r="F70" s="20">
-        <f t="shared" si="1"/>
+      <c r="F70" s="19">
+        <f t="shared" si="3"/>
         <v>1470</v>
       </c>
       <c r="G70" s="10">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="H70" s="19">
+        <v>21</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J70" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5654,22 +6738,32 @@
       <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="19">
         <v>29</v>
       </c>
       <c r="E71" s="10">
         <v>49</v>
       </c>
-      <c r="F71" s="20">
-        <f t="shared" si="1"/>
+      <c r="F71" s="19">
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="G71" s="10">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="H71" s="19">
+        <v>21</v>
+      </c>
+      <c r="I71" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J71" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5678,22 +6772,32 @@
       <c r="C72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>30</v>
       </c>
       <c r="E72" s="10">
         <v>49</v>
       </c>
-      <c r="F72" s="20">
-        <f t="shared" si="1"/>
+      <c r="F72" s="19">
+        <f t="shared" si="3"/>
         <v>1330</v>
       </c>
       <c r="G72" s="10">
         <v>373</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="H72" s="19">
+        <v>21</v>
+      </c>
+      <c r="I72" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J72" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5702,22 +6806,32 @@
       <c r="C73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>31</v>
       </c>
       <c r="E73" s="10">
         <v>49</v>
       </c>
-      <c r="F73" s="20">
-        <f t="shared" si="1"/>
+      <c r="F73" s="19">
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
       <c r="G73">
         <v>372</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="H73" s="19">
+        <v>21</v>
+      </c>
+      <c r="I73" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J73" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5726,22 +6840,32 @@
       <c r="C74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>32</v>
       </c>
       <c r="E74" s="10">
         <v>49</v>
       </c>
-      <c r="F74" s="20">
-        <f t="shared" si="1"/>
+      <c r="F74" s="19">
+        <f t="shared" si="3"/>
         <v>1190</v>
       </c>
       <c r="G74">
         <v>381</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="H74" s="19">
+        <v>21</v>
+      </c>
+      <c r="I74" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J74" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5750,22 +6874,32 @@
       <c r="C75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>33</v>
       </c>
       <c r="E75" s="10">
         <v>49</v>
       </c>
-      <c r="F75" s="20">
-        <f t="shared" si="1"/>
+      <c r="F75" s="19">
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
       <c r="G75">
         <v>380</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="H75" s="19">
+        <v>21</v>
+      </c>
+      <c r="I75" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J75" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5774,22 +6908,32 @@
       <c r="C76" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="19">
         <v>34</v>
       </c>
       <c r="E76" s="10">
         <v>49</v>
       </c>
-      <c r="F76" s="20">
-        <f t="shared" si="1"/>
+      <c r="F76" s="19">
+        <f t="shared" si="3"/>
         <v>1050</v>
       </c>
       <c r="G76">
         <v>375</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="H76" s="19">
+        <v>21</v>
+      </c>
+      <c r="I76" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J76" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5798,22 +6942,32 @@
       <c r="C77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>35</v>
       </c>
       <c r="E77" s="10">
         <v>49</v>
       </c>
-      <c r="F77" s="20">
-        <f t="shared" si="1"/>
+      <c r="F77" s="19">
+        <f t="shared" si="3"/>
         <v>980</v>
       </c>
       <c r="G77" s="10">
         <v>381</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="H77" s="19">
+        <v>21</v>
+      </c>
+      <c r="I77" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J77" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5822,22 +6976,32 @@
       <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="19">
         <v>36</v>
       </c>
       <c r="E78" s="10">
         <v>49</v>
       </c>
-      <c r="F78" s="20">
-        <f t="shared" si="1"/>
+      <c r="F78" s="19">
+        <f t="shared" si="3"/>
         <v>910</v>
       </c>
       <c r="G78" s="10">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="H78" s="19">
+        <v>21</v>
+      </c>
+      <c r="I78" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J78" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5846,22 +7010,32 @@
       <c r="C79" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="19">
         <v>37</v>
       </c>
       <c r="E79" s="10">
         <v>49</v>
       </c>
-      <c r="F79" s="20">
-        <f t="shared" si="1"/>
+      <c r="F79" s="19">
+        <f t="shared" si="3"/>
         <v>840</v>
       </c>
       <c r="G79" s="10">
         <v>385</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="H79" s="19">
+        <v>21</v>
+      </c>
+      <c r="I79" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J79" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5870,22 +7044,32 @@
       <c r="C80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="19">
         <v>38</v>
       </c>
       <c r="E80" s="10">
         <v>49</v>
       </c>
-      <c r="F80" s="20">
-        <f t="shared" si="1"/>
+      <c r="F80" s="19">
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="G80" s="10">
         <v>388</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+      <c r="H80" s="19">
+        <v>21</v>
+      </c>
+      <c r="I80" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J80" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5894,22 +7078,32 @@
       <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>39</v>
       </c>
       <c r="E81" s="10">
         <v>49</v>
       </c>
-      <c r="F81" s="20">
-        <f t="shared" si="1"/>
+      <c r="F81" s="19">
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="G81" s="10">
         <v>390</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+      <c r="H81" s="19">
+        <v>21</v>
+      </c>
+      <c r="I81" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J81" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5918,22 +7112,32 @@
       <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>32</v>
       </c>
       <c r="E82" s="10">
         <v>49</v>
       </c>
-      <c r="F82" s="20">
-        <f t="shared" si="1"/>
+      <c r="F82" s="19">
+        <f t="shared" si="3"/>
         <v>1190</v>
       </c>
       <c r="G82">
         <v>1180</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="H82" s="19">
+        <v>21</v>
+      </c>
+      <c r="I82" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J82" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5942,22 +7146,32 @@
       <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>33</v>
       </c>
       <c r="E83" s="10">
         <v>49</v>
       </c>
-      <c r="F83" s="20">
-        <f t="shared" si="1"/>
+      <c r="F83" s="19">
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
       <c r="G83">
         <v>1200</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+      <c r="H83" s="19">
+        <v>21</v>
+      </c>
+      <c r="I83" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J83" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5966,22 +7180,32 @@
       <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>34</v>
       </c>
       <c r="E84" s="10">
         <v>49</v>
       </c>
-      <c r="F84" s="20">
-        <f t="shared" si="1"/>
+      <c r="F84" s="19">
+        <f t="shared" si="3"/>
         <v>1050</v>
       </c>
       <c r="G84">
         <v>1200</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="H84" s="19">
+        <v>21</v>
+      </c>
+      <c r="I84" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J84" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5990,22 +7214,32 @@
       <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>35</v>
       </c>
       <c r="E85" s="10">
         <v>49</v>
       </c>
-      <c r="F85" s="20">
-        <f t="shared" si="1"/>
+      <c r="F85" s="19">
+        <f t="shared" si="3"/>
         <v>980</v>
       </c>
       <c r="G85">
         <v>1210</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="H85" s="19">
+        <v>21</v>
+      </c>
+      <c r="I85" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J85" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6014,22 +7248,32 @@
       <c r="C86" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="19">
         <v>38</v>
       </c>
       <c r="E86" s="10">
         <v>49</v>
       </c>
-      <c r="F86" s="20">
-        <f t="shared" si="1"/>
+      <c r="F86" s="19">
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="G86">
         <v>850</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="H86" s="19">
+        <v>21</v>
+      </c>
+      <c r="I86" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J86" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6038,22 +7282,32 @@
       <c r="C87" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>39</v>
       </c>
       <c r="E87" s="10">
         <v>49</v>
       </c>
-      <c r="F87" s="20">
-        <f t="shared" si="1"/>
+      <c r="F87" s="19">
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="G87">
         <v>870</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="H87" s="19">
+        <v>21</v>
+      </c>
+      <c r="I87" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J87" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -6062,22 +7316,32 @@
       <c r="C88" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="19">
         <v>40</v>
       </c>
       <c r="E88" s="10">
         <v>49</v>
       </c>
-      <c r="F88" s="20">
-        <f t="shared" si="1"/>
+      <c r="F88" s="19">
+        <f t="shared" si="3"/>
         <v>630</v>
       </c>
       <c r="G88">
         <v>840</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="H88" s="19">
+        <v>21</v>
+      </c>
+      <c r="I88" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J88" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -6086,18 +7350,28 @@
       <c r="C89" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>41</v>
       </c>
       <c r="E89" s="10">
         <v>49</v>
       </c>
-      <c r="F89" s="20">
-        <f t="shared" si="1"/>
+      <c r="F89" s="19">
+        <f t="shared" si="3"/>
         <v>560</v>
       </c>
       <c r="G89">
         <v>810</v>
+      </c>
+      <c r="H89" s="19">
+        <v>21</v>
+      </c>
+      <c r="I89" s="27">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="J89" s="27">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -6113,21 +7387,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6152,9 +7428,15 @@
       <c r="G1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
@@ -6172,14 +7454,24 @@
         <v>26</v>
       </c>
       <c r="E2" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <f>(E2-D2)*70</f>
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="G2" s="10">
         <v>462</v>
+      </c>
+      <c r="H2" s="28">
+        <v>18</v>
+      </c>
+      <c r="I2" s="27">
+        <f>(E2-H2)*70</f>
+        <v>770</v>
+      </c>
+      <c r="J2">
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6195,15 +7487,25 @@
       <c r="D3">
         <v>27</v>
       </c>
-      <c r="E3">
-        <v>28</v>
+      <c r="E3" s="10">
+        <v>29</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F34" si="0">(E3-D3)*70</f>
-        <v>70</v>
+        <f t="shared" ref="F3:F42" si="0">(E3-D3)*70</f>
+        <v>140</v>
       </c>
       <c r="G3" s="10">
         <v>462</v>
+      </c>
+      <c r="H3" s="28">
+        <v>18</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I42" si="1">(E3-H3)*70</f>
+        <v>770</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6220,14 +7522,24 @@
         <v>28</v>
       </c>
       <c r="E4" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G4" s="10">
         <v>462</v>
+      </c>
+      <c r="H4" s="28">
+        <v>18</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6244,14 +7556,24 @@
         <v>29</v>
       </c>
       <c r="E5" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10">
         <v>462</v>
+      </c>
+      <c r="H5" s="28">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6268,14 +7590,24 @@
         <v>25</v>
       </c>
       <c r="E6" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="G6" s="10">
         <v>878</v>
+      </c>
+      <c r="H6" s="28">
+        <v>18</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,15 +7623,25 @@
       <c r="D7">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>28</v>
+      <c r="E7" s="10">
+        <v>29</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="G7" s="10">
         <v>878</v>
+      </c>
+      <c r="H7" s="28">
+        <v>18</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6316,14 +7658,24 @@
         <v>27</v>
       </c>
       <c r="E8" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G8" s="10">
         <v>878</v>
+      </c>
+      <c r="H8" s="28">
+        <v>18</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6340,14 +7692,24 @@
         <v>28</v>
       </c>
       <c r="E9" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G9" s="10">
         <v>878</v>
+      </c>
+      <c r="H9" s="28">
+        <v>18</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1115</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6373,6 +7735,16 @@
       <c r="G10" s="10">
         <v>362</v>
       </c>
+      <c r="H10" s="28">
+        <v>10</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -6397,6 +7769,16 @@
       <c r="G11" s="10">
         <v>365</v>
       </c>
+      <c r="H11" s="28">
+        <v>10</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6421,6 +7803,16 @@
       <c r="G12">
         <v>369</v>
       </c>
+      <c r="H12" s="28">
+        <v>10</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6445,6 +7837,16 @@
       <c r="G13">
         <v>364</v>
       </c>
+      <c r="H13" s="28">
+        <v>10</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6469,6 +7871,16 @@
       <c r="G14">
         <v>384</v>
       </c>
+      <c r="H14" s="28">
+        <v>10</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -6493,6 +7905,16 @@
       <c r="G15">
         <v>378</v>
       </c>
+      <c r="H15" s="28">
+        <v>10</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1110</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6517,8 +7939,18 @@
       <c r="G16">
         <v>402</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="28">
+        <v>10</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -6541,8 +7973,18 @@
       <c r="G17">
         <v>386</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="28">
+        <v>10</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -6565,8 +8007,18 @@
       <c r="G18">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="28">
+        <v>10</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
@@ -6589,8 +8041,18 @@
       <c r="G19">
         <v>816</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="28">
+        <v>10</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -6613,8 +8075,18 @@
       <c r="G20">
         <v>819</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="28">
+        <v>10</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -6637,8 +8109,18 @@
       <c r="G21">
         <v>811</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="28">
+        <v>10</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
@@ -6661,8 +8143,18 @@
       <c r="G22">
         <v>760</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="28">
+        <v>10</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
@@ -6685,8 +8177,18 @@
       <c r="G23">
         <v>1100</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="28">
+        <v>10</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
@@ -6709,8 +8211,18 @@
       <c r="G24">
         <v>1100</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="28">
+        <v>10</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
@@ -6733,8 +8245,18 @@
       <c r="G25">
         <v>1095</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="28">
+        <v>10</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
@@ -6757,8 +8279,18 @@
       <c r="G26">
         <v>1095</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="28">
+        <v>10</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
@@ -6781,8 +8313,18 @@
       <c r="G27">
         <v>1076</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="28">
+        <v>10</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
@@ -6805,8 +8347,18 @@
       <c r="G28">
         <v>1065</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
@@ -6829,8 +8381,18 @@
       <c r="G29">
         <v>1055</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="28">
+        <v>10</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
@@ -6853,8 +8415,18 @@
       <c r="G30">
         <v>1065</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="28">
+        <v>10</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
@@ -6877,8 +8449,18 @@
       <c r="G31">
         <v>681</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="28">
+        <v>10</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>71</v>
       </c>
@@ -6901,8 +8483,18 @@
       <c r="G32">
         <v>660</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="28">
+        <v>10</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
@@ -6925,8 +8517,18 @@
       <c r="G33">
         <v>680</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="28">
+        <v>10</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>71</v>
       </c>
@@ -6948,6 +8550,288 @@
       </c>
       <c r="G34">
         <v>637</v>
+      </c>
+      <c r="H34" s="28">
+        <v>10</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G35">
+        <v>744</v>
+      </c>
+      <c r="H35" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J35">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G36">
+        <v>760</v>
+      </c>
+      <c r="H36" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G37">
+        <v>746</v>
+      </c>
+      <c r="H37" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G38">
+        <v>730</v>
+      </c>
+      <c r="H38" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I38" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G39">
+        <v>418</v>
+      </c>
+      <c r="H39" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G40">
+        <v>416</v>
+      </c>
+      <c r="H40" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I40" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J40" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>31</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G41">
+        <v>414</v>
+      </c>
+      <c r="H41" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I41" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>31</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G42">
+        <v>420</v>
+      </c>
+      <c r="H42" s="28">
+        <v>16.5</v>
+      </c>
+      <c r="I42" s="27">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -6963,11 +8847,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6975,20 +8859,20 @@
     <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="52.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="6"/>
+    <col min="4" max="4" width="10.42578125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="7" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -6998,35 +8882,38 @@
       <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="9" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="9" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -7042,26 +8929,30 @@
       <c r="E2" s="13">
         <v>41876</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13">
+        <f>E2-D2</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -7071,35 +8962,39 @@
       <c r="C3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>41856</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="22">
         <v>41878</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13">
+        <f>E3-D3</f>
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -7109,35 +9004,39 @@
       <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>41856</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="22">
         <v>41878</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F6" si="0">E4-D4</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -7147,32 +9046,36 @@
       <c r="C5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>41856</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="22">
         <v>41878</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
@@ -7182,23 +9085,27 @@
       <c r="C6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>42100</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="22">
         <v>42121</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -7208,32 +9115,36 @@
       <c r="C7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>41857</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="22">
         <v>41885</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="13">
+        <f>E7-D7</f>
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
@@ -7243,32 +9154,36 @@
       <c r="C8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>41857</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="22">
         <v>41885</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="13">
+        <f>E8-D8</f>
+        <v>28</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -7278,35 +9193,39 @@
       <c r="C9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>41857</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="22">
         <v>41885</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="13">
+        <f>E9-D9</f>
+        <v>28</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -7316,32 +9235,36 @@
       <c r="C10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>41836</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="22">
         <v>41900</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="13">
+        <f>E10-D10</f>
         <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -7351,35 +9274,39 @@
       <c r="C11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>41836</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="22">
         <v>41900</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="13">
+        <f>E11-D11</f>
         <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -7389,32 +9316,36 @@
       <c r="C12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>41836</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="22">
         <v>41900</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="13">
+        <f>E12-D12</f>
         <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -7424,29 +9355,33 @@
       <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="22">
         <v>42102</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="22">
         <v>42135</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="13">
+        <f>E13-D13</f>
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>71</v>
       </c>
@@ -7462,306 +9397,318 @@
       <c r="E14" s="24">
         <v>42167</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="13">
+        <f t="shared" ref="F14:F19" si="1">E14-D14</f>
+        <v>59</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="M14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="O14" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="P14" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="R14" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="S14" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="T14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="U14" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="V14" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="W14" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="X14" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Z14" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="Z14" s="22" t="s">
+      <c r="AA14" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="AA14" s="22" t="s">
+      <c r="AB14" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="AB14" s="22" t="s">
+      <c r="AC14" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="AC14" s="22" t="s">
+      <c r="AD14" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AD14" s="22" t="s">
+      <c r="AE14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AE14" s="22" t="s">
+      <c r="AF14" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="AF14" s="22" t="s">
+      <c r="AG14" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AG14" s="22" t="s">
+      <c r="AH14" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="AH14" s="22" t="s">
+      <c r="AI14" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="AI14" s="22" t="s">
+      <c r="AJ14" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AJ14" s="22" t="s">
+      <c r="AK14" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK14" s="22" t="s">
+      <c r="AL14" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="AL14" s="22" t="s">
+      <c r="AM14" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AM14" s="22" t="s">
+      <c r="AN14" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="AN14" s="22" t="s">
+      <c r="AO14" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="AO14" s="22" t="s">
+      <c r="AP14" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="AP14" s="22" t="s">
+      <c r="AQ14" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AQ14" s="22" t="s">
+      <c r="AR14" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="N15" s="22">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="O15" s="22">
+      <c r="P15" s="21">
         <v>0</v>
       </c>
-      <c r="P15" s="22">
+      <c r="Q15" s="21">
         <v>0</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="R15" s="21">
         <v>0</v>
       </c>
-      <c r="R15" s="22">
+      <c r="S15" s="21">
         <v>0</v>
       </c>
-      <c r="S15" s="22">
+      <c r="T15" s="21">
         <v>0</v>
       </c>
-      <c r="T15" s="22">
+      <c r="U15" s="21">
         <v>-1</v>
       </c>
-      <c r="U15" s="22">
+      <c r="V15" s="21">
         <v>-1</v>
       </c>
-      <c r="V15" s="22">
+      <c r="W15" s="21">
         <v>-1</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="X15" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="Y15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Y15" s="22" t="s">
+      <c r="Z15" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="Z15" s="22" t="s">
+      <c r="AA15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AA15" s="22" t="s">
+      <c r="AB15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AB15" s="22" t="s">
+      <c r="AC15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AC15" s="22" t="s">
+      <c r="AD15" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AD15" s="22" t="s">
+      <c r="AE15" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AE15" s="22" t="s">
+      <c r="AF15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AF15" s="22" t="s">
+      <c r="AG15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AG15" s="22" t="s">
+      <c r="AH15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AH15" s="22" t="s">
+      <c r="AI15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AI15" s="22" t="s">
+      <c r="AJ15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AJ15" s="22" t="s">
+      <c r="AK15" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AK15" s="22" t="s">
+      <c r="AL15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AL15" s="22" t="s">
+      <c r="AM15" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AM15" s="22" t="s">
+      <c r="AN15" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AN15" s="22" t="s">
+      <c r="AO15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AO15" s="22" t="s">
+      <c r="AP15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AP15" s="22" t="s">
+      <c r="AQ15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AQ15" s="22" t="s">
+      <c r="AR15" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="23"/>
+      <c r="N16" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="AA16" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AA16" s="22" t="s">
+      <c r="AB16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AB16" s="22" t="s">
+      <c r="AC16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AC16" s="22" t="s">
+      <c r="AD16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AD16" s="22" t="s">
+      <c r="AE16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AE16" s="22" t="s">
+      <c r="AF16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AF16" s="22" t="s">
+      <c r="AG16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AG16" s="22" t="s">
+      <c r="AH16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AH16" s="22" t="s">
+      <c r="AI16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AI16" s="22" t="s">
+      <c r="AJ16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AJ16" s="22" t="s">
+      <c r="AK16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AK16" s="22" t="s">
+      <c r="AL16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AL16" s="22" t="s">
+      <c r="AM16" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AM16" s="22" t="s">
+      <c r="AN16" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AN16" s="22" t="s">
+      <c r="AO16" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AO16" s="22" t="s">
+      <c r="AP16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AP16" s="22" t="s">
+      <c r="AQ16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AQ16" s="22" t="s">
+      <c r="AR16" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
@@ -7771,23 +9718,27 @@
       <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="22">
         <v>42108</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="22">
         <v>42167</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>73</v>
       </c>
@@ -7797,23 +9748,27 @@
       <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="22">
         <v>42108</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="22">
         <v>42167</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="13">
+        <f>E18-D18</f>
+        <v>59</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
@@ -7823,39 +9778,43 @@
       <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="22">
         <v>42108</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="22">
         <v>42167</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="28280" windowHeight="16460" activeTab="2"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="28275" windowHeight="16455"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
@@ -12,20 +17,20 @@
     <sheet name="SOMcre" sheetId="5" r:id="rId3"/>
     <sheet name="Experiment Notes" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="255">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -492,9 +497,6 @@
     <t>layered_cellFillData_CH_150612_A_p5s1_AL_cropped.mat</t>
   </si>
   <si>
-    <t>layered_cellFillData_CH_150612_A_p4s3_ERC_cropped.mat</t>
-  </si>
-  <si>
     <t>layered_cellFillData_CH_150612_A_p4s4_ERC_cropped.mat</t>
   </si>
   <si>
@@ -781,6 +783,18 @@
   </si>
   <si>
     <t>central, small</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p4s5crop251pt19_ch</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p4s6crop251pt19_ch</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s1crop251pt19_ch</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_p5s2crop251pt19_ch</t>
   </si>
 </sst>
 </file>
@@ -791,7 +805,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,13 +844,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -867,7 +893,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,14 +946,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1216,7 +1247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,28 +1257,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="10" style="29" customWidth="1"/>
-    <col min="12" max="12" width="15" style="29" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="10" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="27" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1270,25 +1301,25 @@
         <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1321,21 +1352,21 @@
       <c r="J2" s="24">
         <v>1190</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="27">
         <v>14</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="27">
         <f>(E2-K2)*70</f>
         <v>1680</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>246</v>
+      <c r="M2" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1368,21 +1399,21 @@
       <c r="J3" s="24">
         <v>1190</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>14</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <f t="shared" ref="L3:L67" si="1">(E3-K3)*70</f>
         <v>1680</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>246</v>
+      <c r="M3" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1415,21 +1446,21 @@
       <c r="J4" s="24">
         <v>1190</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>14</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>246</v>
+      <c r="M4" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1462,21 +1493,21 @@
       <c r="J5" s="24">
         <v>1190</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>14</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>246</v>
+      <c r="M5" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1509,21 +1540,21 @@
       <c r="J6" s="24">
         <v>1190</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>14</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>246</v>
+      <c r="M6" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1556,21 +1587,21 @@
       <c r="J7" s="24">
         <v>1190</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>14</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>246</v>
+      <c r="M7" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1603,115 +1634,115 @@
       <c r="J8" s="24">
         <v>1190</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>14</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M8" s="29" t="s">
-        <v>246</v>
+      <c r="M8" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="31">
         <v>31</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="31">
         <v>38</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="31">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="32">
         <v>404</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="31">
         <v>17</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="33">
         <v>1190</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="34">
         <v>14</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="34">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+      <c r="M9" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="31">
         <v>31</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="31">
         <v>38</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="31">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="32">
         <v>1180</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="31">
         <v>17</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="33">
         <v>1190</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="34">
         <v>14</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="34">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1744,21 +1775,21 @@
       <c r="J11" s="24">
         <v>1190</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>14</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>246</v>
+      <c r="M11" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1791,21 +1822,21 @@
       <c r="J12" s="24">
         <v>1190</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <v>14</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M12" s="29" t="s">
-        <v>246</v>
+      <c r="M12" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1838,21 +1869,21 @@
       <c r="J13" s="24">
         <v>1190</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <v>14</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M13" s="29" t="s">
-        <v>246</v>
+      <c r="M13" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1885,18 +1916,18 @@
       <c r="J14" s="24">
         <v>1115</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <v>12</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M14" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1929,18 +1960,18 @@
       <c r="J15" s="24">
         <v>1115</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>12</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1973,18 +2004,18 @@
       <c r="J16" s="24">
         <v>1115</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>12</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M16" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2017,18 +2048,18 @@
       <c r="J17" s="24">
         <v>1115</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <v>12</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M17" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2061,18 +2092,18 @@
       <c r="J18" s="24">
         <v>1115</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <v>12</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M18" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2105,18 +2136,18 @@
       <c r="J19" s="24">
         <v>1115</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <v>12</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M19" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2149,18 +2180,18 @@
       <c r="J20" s="24">
         <v>1115</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <v>12</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2193,18 +2224,18 @@
       <c r="J21" s="24">
         <v>1115</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <v>12</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M21" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2237,18 +2268,18 @@
       <c r="J22" s="24">
         <v>1115</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <v>12</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M22" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2281,18 +2312,18 @@
       <c r="J23" s="24">
         <v>1115</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <v>12</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2325,18 +2356,18 @@
       <c r="J24" s="24">
         <v>1115</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <v>12</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M24" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2369,18 +2400,18 @@
       <c r="J25" s="24">
         <v>1115</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="27">
         <v>12</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2413,18 +2444,18 @@
       <c r="J26" s="24">
         <v>1155</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <v>8</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M26" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2457,18 +2488,18 @@
       <c r="J27" s="24">
         <v>1155</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <v>8</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2501,18 +2532,18 @@
       <c r="J28" s="24">
         <v>1155</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <v>8</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M28" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2545,18 +2576,18 @@
       <c r="J29" s="24">
         <v>1155</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <v>8</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M29" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2589,18 +2620,18 @@
       <c r="J30" s="24">
         <v>1155</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <v>8</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M30" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2633,18 +2664,18 @@
       <c r="J31" s="24">
         <v>1155</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <v>8</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M31" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2677,18 +2708,18 @@
       <c r="J32" s="24">
         <v>1155</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <v>8</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M32" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2721,18 +2752,18 @@
       <c r="J33" s="24">
         <v>1155</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="27">
         <v>8</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M33" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2765,18 +2796,18 @@
       <c r="J34" s="24">
         <v>1155</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="27">
         <v>8</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M34" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2809,18 +2840,18 @@
       <c r="J35" s="24">
         <v>1155</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="27">
         <v>8</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M35" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2853,18 +2884,18 @@
       <c r="J36" s="24">
         <v>1155</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <v>8</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M36" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2897,23 +2928,23 @@
       <c r="J37" s="24">
         <v>1155</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="27">
         <v>8</v>
       </c>
-      <c r="L37" s="29">
+      <c r="L37" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="M37" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2941,23 +2972,23 @@
       <c r="J38" s="24">
         <v>1176</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="27">
         <v>12</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M38" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2985,23 +3016,23 @@
       <c r="J39" s="24">
         <v>1176</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="27">
         <v>12</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -3029,23 +3060,23 @@
       <c r="J40" s="24">
         <v>1176</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="27">
         <v>12</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M40" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3073,18 +3104,18 @@
       <c r="J41" s="24">
         <v>1176</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="27">
         <v>12</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M41" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -3117,18 +3148,18 @@
       <c r="J42" s="24">
         <v>1176</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="27">
         <v>12</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M42" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -3161,18 +3192,18 @@
       <c r="J43" s="24">
         <v>1176</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <v>12</v>
       </c>
-      <c r="L43" s="29">
+      <c r="L43" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M43" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -3205,18 +3236,18 @@
       <c r="J44" s="24">
         <v>1176</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="27">
         <v>12</v>
       </c>
-      <c r="L44" s="29">
+      <c r="L44" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M44" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -3249,18 +3280,18 @@
       <c r="J45" s="24">
         <v>1176</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="27">
         <v>12</v>
       </c>
-      <c r="L45" s="29">
+      <c r="L45" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M45" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3293,18 +3324,18 @@
       <c r="J46" s="24">
         <v>1176</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="27">
         <v>12</v>
       </c>
-      <c r="L46" s="29">
+      <c r="L46" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M46" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -3337,18 +3368,18 @@
       <c r="J47" s="24">
         <v>1176</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="27">
         <v>12</v>
       </c>
-      <c r="L47" s="29">
+      <c r="L47" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M47" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="M47" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3381,18 +3412,18 @@
       <c r="J48" s="24">
         <v>1176</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="27">
         <v>12</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -3425,18 +3456,18 @@
       <c r="J49" s="24">
         <v>1176</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="27">
         <v>12</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M49" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3469,18 +3500,18 @@
       <c r="J50" s="24">
         <v>1200</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="27">
         <v>4</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M50" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -3513,18 +3544,18 @@
       <c r="J51" s="24">
         <v>1200</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="27">
         <v>4</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M51" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -3557,18 +3588,18 @@
       <c r="J52" s="24">
         <v>1200</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="27">
         <v>4</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M52" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3601,18 +3632,18 @@
       <c r="J53" s="24">
         <v>1200</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="27">
         <v>4</v>
       </c>
-      <c r="L53" s="29">
+      <c r="L53" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M53" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3645,18 +3676,18 @@
       <c r="J54" s="24">
         <v>1200</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="27">
         <v>4</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M54" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3689,18 +3720,18 @@
       <c r="J55" s="24">
         <v>1200</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="27">
         <v>4</v>
       </c>
-      <c r="L55" s="29">
+      <c r="L55" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M55" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3733,18 +3764,18 @@
       <c r="J56" s="24">
         <v>1200</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="27">
         <v>4</v>
       </c>
-      <c r="L56" s="29">
+      <c r="L56" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M56" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="M56" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3777,18 +3808,18 @@
       <c r="J57" s="24">
         <v>1200</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="27">
         <v>4</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M57" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="M57" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3821,18 +3852,18 @@
       <c r="J58" s="24">
         <v>1200</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="27">
         <v>4</v>
       </c>
-      <c r="L58" s="29">
+      <c r="L58" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M58" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="M58" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3865,18 +3896,18 @@
       <c r="J59" s="24">
         <v>1200</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="27">
         <v>4</v>
       </c>
-      <c r="L59" s="29">
+      <c r="L59" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M59" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="M59" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3909,18 +3940,18 @@
       <c r="J60" s="24">
         <v>1200</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="27">
         <v>4</v>
       </c>
-      <c r="L60" s="29">
+      <c r="L60" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M60" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="M60" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3953,18 +3984,18 @@
       <c r="J61" s="24">
         <v>1200</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="27">
         <v>4</v>
       </c>
-      <c r="L61" s="29">
+      <c r="L61" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M61" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="M61" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3997,18 +4028,18 @@
       <c r="J62" s="24">
         <v>1200</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="27">
         <v>4</v>
       </c>
-      <c r="L62" s="29">
+      <c r="L62" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M62" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="M62" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -4041,18 +4072,18 @@
       <c r="J63" s="24">
         <v>1200</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="27">
         <v>4</v>
       </c>
-      <c r="L63" s="29">
+      <c r="L63" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M63" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="M63" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -4085,18 +4116,18 @@
       <c r="J64" s="24">
         <v>1200</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="27">
         <v>4</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L64" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M64" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="M64" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -4129,18 +4160,18 @@
       <c r="J65" s="24">
         <v>1200</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="27">
         <v>4</v>
       </c>
-      <c r="L65" s="29">
+      <c r="L65" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M65" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="M65" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -4173,18 +4204,18 @@
       <c r="J66" s="24">
         <v>1190</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="27">
         <v>9</v>
       </c>
-      <c r="L66" s="29">
+      <c r="L66" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M66" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="M66" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -4217,18 +4248,18 @@
       <c r="J67" s="24">
         <v>1190</v>
       </c>
-      <c r="K67" s="29">
+      <c r="K67" s="27">
         <v>9</v>
       </c>
-      <c r="L67" s="29">
+      <c r="L67" s="27">
         <f t="shared" si="1"/>
         <v>1610</v>
       </c>
-      <c r="M67" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="M67" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -4261,18 +4292,18 @@
       <c r="J68" s="24">
         <v>1190</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="27">
         <v>9</v>
       </c>
-      <c r="L68" s="29">
+      <c r="L68" s="27">
         <f t="shared" ref="L68:L77" si="5">(E68-K68)*70</f>
         <v>1610</v>
       </c>
-      <c r="M68" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="M68" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -4305,18 +4336,18 @@
       <c r="J69" s="24">
         <v>1190</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="27">
         <v>9</v>
       </c>
-      <c r="L69" s="29">
+      <c r="L69" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M69" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="M69" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -4349,18 +4380,18 @@
       <c r="J70" s="24">
         <v>1190</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="27">
         <v>9</v>
       </c>
-      <c r="L70" s="29">
+      <c r="L70" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M70" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="M70" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -4393,18 +4424,18 @@
       <c r="J71" s="24">
         <v>1190</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="27">
         <v>9</v>
       </c>
-      <c r="L71" s="29">
+      <c r="L71" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M71" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="M71" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -4437,18 +4468,18 @@
       <c r="J72" s="24">
         <v>1190</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="27">
         <v>9</v>
       </c>
-      <c r="L72" s="29">
+      <c r="L72" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M72" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="M72" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -4481,18 +4512,18 @@
       <c r="J73" s="24">
         <v>1190</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="27">
         <v>9</v>
       </c>
-      <c r="L73" s="29">
+      <c r="L73" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M73" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="M73" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -4525,18 +4556,18 @@
       <c r="J74" s="24">
         <v>1190</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="27">
         <v>9</v>
       </c>
-      <c r="L74" s="29">
+      <c r="L74" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M74" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="M74" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -4569,18 +4600,18 @@
       <c r="J75" s="24">
         <v>1190</v>
       </c>
-      <c r="K75" s="29">
+      <c r="K75" s="27">
         <v>9</v>
       </c>
-      <c r="L75" s="29">
+      <c r="L75" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M75" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="M75" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -4613,18 +4644,18 @@
       <c r="J76" s="24">
         <v>1190</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K76" s="27">
         <v>9</v>
       </c>
-      <c r="L76" s="29">
+      <c r="L76" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M76" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -4657,15 +4688,15 @@
       <c r="J77" s="24">
         <v>1190</v>
       </c>
-      <c r="K77" s="29">
+      <c r="K77" s="27">
         <v>9</v>
       </c>
-      <c r="L77" s="29">
+      <c r="L77" s="27">
         <f t="shared" si="5"/>
         <v>1610</v>
       </c>
-      <c r="M77" s="29" t="s">
-        <v>249</v>
+      <c r="M77" s="27" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4684,28 +4715,28 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" customWidth="1"/>
     <col min="10" max="10" width="13" style="24" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="15" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="29"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="27"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -4728,25 +4759,25 @@
         <v>83</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -4779,19 +4810,19 @@
       <c r="J2" s="24">
         <v>1185</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="27">
         <v>7</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="27">
         <f>(E2-K2)*70</f>
         <v>2240</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>247</v>
+      <c r="M2" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4824,18 +4855,18 @@
       <c r="J3" s="24">
         <v>1185</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>7</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <f t="shared" ref="L3:L66" si="1">(E3-K3)*70</f>
         <v>2240</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -4868,18 +4899,18 @@
       <c r="J4" s="24">
         <v>1185</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>7</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4912,18 +4943,18 @@
       <c r="J5" s="24">
         <v>1185</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>7</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -4956,18 +4987,18 @@
       <c r="J6" s="24">
         <v>1185</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>7</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -5000,18 +5031,18 @@
       <c r="J7" s="24">
         <v>1185</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>7</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
@@ -5044,18 +5075,18 @@
       <c r="J8" s="24">
         <v>1185</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>7</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M8" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -5088,18 +5119,18 @@
       <c r="J9" s="24">
         <v>1185</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>7</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
@@ -5132,18 +5163,18 @@
       <c r="J10" s="24">
         <v>1185</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <v>7</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
@@ -5176,18 +5207,18 @@
       <c r="J11" s="24">
         <v>1185</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>7</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
@@ -5220,18 +5251,18 @@
       <c r="J12" s="24">
         <v>1185</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <v>7</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M12" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
@@ -5264,18 +5295,18 @@
       <c r="J13" s="24">
         <v>1185</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <v>7</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="M13" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
@@ -5308,18 +5339,18 @@
       <c r="J14" s="24">
         <v>1200</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <v>4</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M14" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -5352,18 +5383,18 @@
       <c r="J15" s="24">
         <v>1200</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>4</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -5396,18 +5427,18 @@
       <c r="J16" s="24">
         <v>1200</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>4</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M16" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
@@ -5440,18 +5471,18 @@
       <c r="J17" s="24">
         <v>1200</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <v>4</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M17" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -5484,18 +5515,18 @@
       <c r="J18" s="24">
         <v>1200</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <v>4</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M18" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
@@ -5528,18 +5559,18 @@
       <c r="J19" s="24">
         <v>1200</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <v>4</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M19" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>17</v>
       </c>
@@ -5572,18 +5603,18 @@
       <c r="J20" s="24">
         <v>1200</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <v>4</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
@@ -5616,18 +5647,18 @@
       <c r="J21" s="24">
         <v>1200</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <v>4</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M21" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
@@ -5660,18 +5691,18 @@
       <c r="J22" s="24">
         <v>1200</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <v>4</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M22" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
@@ -5704,18 +5735,18 @@
       <c r="J23" s="24">
         <v>1200</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <v>4</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
@@ -5748,18 +5779,18 @@
       <c r="J24" s="24">
         <v>1200</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <v>4</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M24" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>17</v>
       </c>
@@ -5792,18 +5823,18 @@
       <c r="J25" s="24">
         <v>1200</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="27">
         <v>4</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>17</v>
       </c>
@@ -5836,18 +5867,18 @@
       <c r="J26" s="24">
         <v>1200</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <v>4</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M26" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>17</v>
       </c>
@@ -5880,18 +5911,18 @@
       <c r="J27" s="24">
         <v>1200</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <v>4</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>17</v>
       </c>
@@ -5924,18 +5955,18 @@
       <c r="J28" s="24">
         <v>1200</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <v>4</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M28" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
@@ -5968,18 +5999,18 @@
       <c r="J29" s="24">
         <v>1200</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <v>4</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="27">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="M29" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>18</v>
       </c>
@@ -6012,18 +6043,18 @@
       <c r="J30" s="24">
         <v>1200</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <v>11</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M30" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>18</v>
       </c>
@@ -6056,18 +6087,18 @@
       <c r="J31" s="24">
         <v>1200</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <v>11</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M31" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>18</v>
       </c>
@@ -6100,18 +6131,18 @@
       <c r="J32" s="24">
         <v>1200</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <v>11</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M32" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -6144,18 +6175,18 @@
       <c r="J33" s="24">
         <v>1200</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="27">
         <v>11</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M33" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -6188,18 +6219,18 @@
       <c r="J34" s="24">
         <v>1200</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="27">
         <v>11</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M34" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -6232,18 +6263,18 @@
       <c r="J35" s="24">
         <v>1200</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="27">
         <v>11</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M35" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -6276,18 +6307,18 @@
       <c r="J36" s="24">
         <v>1200</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <v>11</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M36" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -6320,18 +6351,18 @@
       <c r="J37" s="24">
         <v>1200</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="27">
         <v>11</v>
       </c>
-      <c r="L37" s="29">
+      <c r="L37" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M37" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
@@ -6364,18 +6395,18 @@
       <c r="J38" s="24">
         <v>1200</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="27">
         <v>11</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M38" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>18</v>
       </c>
@@ -6408,18 +6439,18 @@
       <c r="J39" s="24">
         <v>1200</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="27">
         <v>11</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -6452,18 +6483,18 @@
       <c r="J40" s="24">
         <v>1200</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="27">
         <v>11</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M40" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -6496,18 +6527,18 @@
       <c r="J41" s="24">
         <v>1200</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="27">
         <v>11</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M41" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -6540,18 +6571,18 @@
       <c r="J42" s="24">
         <v>1200</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="27">
         <v>11</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M42" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -6584,18 +6615,18 @@
       <c r="J43" s="24">
         <v>1200</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <v>11</v>
       </c>
-      <c r="L43" s="29">
+      <c r="L43" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M43" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -6628,18 +6659,18 @@
       <c r="J44" s="24">
         <v>1200</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="27">
         <v>11</v>
       </c>
-      <c r="L44" s="29">
+      <c r="L44" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M44" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -6672,18 +6703,18 @@
       <c r="J45" s="24">
         <v>1200</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="27">
         <v>11</v>
       </c>
-      <c r="L45" s="29">
+      <c r="L45" s="27">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="M45" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>19</v>
       </c>
@@ -6716,18 +6747,18 @@
       <c r="J46" s="24">
         <v>1235</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="27">
         <v>6</v>
       </c>
-      <c r="L46" s="29">
+      <c r="L46" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M46" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>19</v>
       </c>
@@ -6760,18 +6791,18 @@
       <c r="J47" s="24">
         <v>1235</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="27">
         <v>6</v>
       </c>
-      <c r="L47" s="29">
+      <c r="L47" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M47" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="M47" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>19</v>
       </c>
@@ -6804,18 +6835,18 @@
       <c r="J48" s="24">
         <v>1235</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="27">
         <v>6</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>19</v>
       </c>
@@ -6848,18 +6879,18 @@
       <c r="J49" s="24">
         <v>1235</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="27">
         <v>6</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M49" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>19</v>
       </c>
@@ -6892,18 +6923,18 @@
       <c r="J50" s="24">
         <v>1235</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="27">
         <v>6</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M50" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>19</v>
       </c>
@@ -6936,18 +6967,18 @@
       <c r="J51" s="24">
         <v>1235</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="27">
         <v>6</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M51" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>19</v>
       </c>
@@ -6980,18 +7011,18 @@
       <c r="J52" s="24">
         <v>1235</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="27">
         <v>6</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M52" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>19</v>
       </c>
@@ -7024,18 +7055,18 @@
       <c r="J53" s="24">
         <v>1235</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="27">
         <v>6</v>
       </c>
-      <c r="L53" s="29">
+      <c r="L53" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M53" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>19</v>
       </c>
@@ -7068,18 +7099,18 @@
       <c r="J54" s="24">
         <v>1235</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="27">
         <v>6</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M54" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>19</v>
       </c>
@@ -7112,18 +7143,18 @@
       <c r="J55" s="24">
         <v>1235</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="27">
         <v>6</v>
       </c>
-      <c r="L55" s="29">
+      <c r="L55" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M55" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>19</v>
       </c>
@@ -7156,18 +7187,18 @@
       <c r="J56" s="24">
         <v>1235</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="27">
         <v>6</v>
       </c>
-      <c r="L56" s="29">
+      <c r="L56" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M56" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="M56" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>19</v>
       </c>
@@ -7200,18 +7231,18 @@
       <c r="J57" s="24">
         <v>1235</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="27">
         <v>6</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="27">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="M57" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="9" customFormat="1">
+      <c r="M57" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>76</v>
       </c>
@@ -7225,11 +7256,11 @@
         <v>25</v>
       </c>
       <c r="E58" s="9">
-        <v>47</v>
-      </c>
-      <c r="F58" s="18">
-        <f t="shared" si="2"/>
-        <v>1540</v>
+        <v>48</v>
+      </c>
+      <c r="F58" s="30">
+        <f>(E58-(D58+13))* 70</f>
+        <v>700</v>
       </c>
       <c r="G58" s="9">
         <v>937</v>
@@ -7239,23 +7270,23 @@
       </c>
       <c r="I58" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J58" s="24">
         <v>1200</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="27">
         <v>8</v>
       </c>
-      <c r="L58" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M58" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="9" customFormat="1">
+      <c r="L58" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>76</v>
       </c>
@@ -7269,11 +7300,11 @@
         <v>26</v>
       </c>
       <c r="E59" s="9">
-        <v>47</v>
-      </c>
-      <c r="F59" s="18">
-        <f t="shared" si="2"/>
-        <v>1470</v>
+        <v>48</v>
+      </c>
+      <c r="F59" s="30">
+        <f t="shared" ref="F59:F89" si="3">(E59-(D59+13))* 70</f>
+        <v>630</v>
       </c>
       <c r="G59" s="9">
         <v>927</v>
@@ -7283,23 +7314,23 @@
       </c>
       <c r="I59" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J59" s="24">
         <v>1200</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="27">
         <v>8</v>
       </c>
-      <c r="L59" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M59" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1">
+      <c r="L59" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>76</v>
       </c>
@@ -7313,11 +7344,11 @@
         <v>27</v>
       </c>
       <c r="E60" s="9">
-        <v>47</v>
-      </c>
-      <c r="F60" s="18">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>48</v>
+      </c>
+      <c r="F60" s="30">
+        <f t="shared" si="3"/>
+        <v>560</v>
       </c>
       <c r="G60" s="9">
         <v>950</v>
@@ -7327,23 +7358,23 @@
       </c>
       <c r="I60" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J60" s="24">
         <v>1200</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="27">
         <v>8</v>
       </c>
-      <c r="L60" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M60" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="9" customFormat="1">
+      <c r="L60" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>76</v>
       </c>
@@ -7357,11 +7388,11 @@
         <v>28</v>
       </c>
       <c r="E61" s="9">
-        <v>47</v>
-      </c>
-      <c r="F61" s="18">
-        <f t="shared" si="2"/>
-        <v>1330</v>
+        <v>48</v>
+      </c>
+      <c r="F61" s="30">
+        <f t="shared" si="3"/>
+        <v>490</v>
       </c>
       <c r="G61" s="9">
         <v>935</v>
@@ -7371,23 +7402,23 @@
       </c>
       <c r="I61" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J61" s="24">
         <v>1200</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="27">
         <v>8</v>
       </c>
-      <c r="L61" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M61" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="L61" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>76</v>
       </c>
@@ -7401,11 +7432,11 @@
         <v>29</v>
       </c>
       <c r="E62" s="9">
-        <v>47</v>
-      </c>
-      <c r="F62" s="18">
-        <f t="shared" si="2"/>
-        <v>1260</v>
+        <v>48</v>
+      </c>
+      <c r="F62" s="30">
+        <f t="shared" si="3"/>
+        <v>420</v>
       </c>
       <c r="G62" s="9">
         <v>904</v>
@@ -7415,23 +7446,23 @@
       </c>
       <c r="I62" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J62" s="24">
         <v>1200</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="27">
         <v>8</v>
       </c>
-      <c r="L62" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="L62" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>76</v>
       </c>
@@ -7445,11 +7476,11 @@
         <v>30</v>
       </c>
       <c r="E63" s="9">
-        <v>47</v>
-      </c>
-      <c r="F63" s="18">
-        <f t="shared" si="2"/>
-        <v>1190</v>
+        <v>48</v>
+      </c>
+      <c r="F63" s="30">
+        <f t="shared" si="3"/>
+        <v>350</v>
       </c>
       <c r="G63" s="9">
         <v>940</v>
@@ -7459,23 +7490,23 @@
       </c>
       <c r="I63" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J63" s="24">
         <v>1200</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="27">
         <v>8</v>
       </c>
-      <c r="L63" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M63" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="L63" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>76</v>
       </c>
@@ -7489,11 +7520,11 @@
         <v>31</v>
       </c>
       <c r="E64" s="9">
-        <v>47</v>
-      </c>
-      <c r="F64" s="18">
-        <f t="shared" si="2"/>
-        <v>1120</v>
+        <v>48</v>
+      </c>
+      <c r="F64" s="30">
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="G64">
         <v>920</v>
@@ -7503,23 +7534,23 @@
       </c>
       <c r="I64" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J64" s="24">
         <v>1200</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="27">
         <v>8</v>
       </c>
-      <c r="L64" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M64" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="L64" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>76</v>
       </c>
@@ -7533,11 +7564,11 @@
         <v>32</v>
       </c>
       <c r="E65" s="9">
-        <v>47</v>
-      </c>
-      <c r="F65" s="18">
-        <f t="shared" si="2"/>
-        <v>1050</v>
+        <v>48</v>
+      </c>
+      <c r="F65" s="30">
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="G65">
         <v>910</v>
@@ -7547,23 +7578,23 @@
       </c>
       <c r="I65" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J65" s="24">
         <v>1200</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="27">
         <v>8</v>
       </c>
-      <c r="L65" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M65" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="9" customFormat="1">
+      <c r="L65" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>76</v>
       </c>
@@ -7577,11 +7608,11 @@
         <v>33</v>
       </c>
       <c r="E66" s="9">
-        <v>47</v>
-      </c>
-      <c r="F66" s="18">
-        <f t="shared" si="2"/>
-        <v>980</v>
+        <v>48</v>
+      </c>
+      <c r="F66" s="30">
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="G66" s="9">
         <v>908</v>
@@ -7591,23 +7622,23 @@
       </c>
       <c r="I66" s="24">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="J66" s="24">
         <v>1200</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="27">
         <v>8</v>
       </c>
-      <c r="L66" s="29">
-        <f t="shared" si="1"/>
-        <v>2730</v>
-      </c>
-      <c r="M66" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="9" customFormat="1">
+      <c r="L66" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>76</v>
       </c>
@@ -7621,11 +7652,11 @@
         <v>34</v>
       </c>
       <c r="E67" s="9">
-        <v>47</v>
-      </c>
-      <c r="F67" s="18">
-        <f t="shared" si="2"/>
-        <v>910</v>
+        <v>48</v>
+      </c>
+      <c r="F67" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="G67" s="9">
         <v>891</v>
@@ -7634,24 +7665,24 @@
         <v>21</v>
       </c>
       <c r="I67" s="24">
-        <f t="shared" ref="I67:I89" si="3">(E67-H67)*70</f>
-        <v>1820</v>
+        <f t="shared" ref="I67:I89" si="4">(E67-H67)*70</f>
+        <v>1890</v>
       </c>
       <c r="J67" s="24">
         <v>1200</v>
       </c>
-      <c r="K67" s="29">
+      <c r="K67" s="27">
         <v>8</v>
       </c>
-      <c r="L67" s="29">
-        <f t="shared" ref="L67:L89" si="4">(E67-K67)*70</f>
-        <v>2730</v>
-      </c>
-      <c r="M67" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="9" customFormat="1">
+      <c r="L67" s="27">
+        <f t="shared" ref="L67:L89" si="5">(E67-K67)*70</f>
+        <v>2800</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>76</v>
       </c>
@@ -7665,11 +7696,11 @@
         <v>35</v>
       </c>
       <c r="E68" s="9">
-        <v>47</v>
-      </c>
-      <c r="F68" s="18">
-        <f t="shared" ref="F68:F89" si="5">(E68-D68) * 70</f>
-        <v>840</v>
+        <v>48</v>
+      </c>
+      <c r="F68" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G68" s="9">
         <v>895</v>
@@ -7678,24 +7709,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J68" s="24">
         <v>1200</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="27">
         <v>8</v>
       </c>
-      <c r="L68" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M68" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="9" customFormat="1">
+      <c r="L68" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>76</v>
       </c>
@@ -7709,11 +7740,11 @@
         <v>27</v>
       </c>
       <c r="E69" s="9">
-        <v>47</v>
-      </c>
-      <c r="F69" s="18">
-        <f t="shared" si="5"/>
-        <v>1400</v>
+        <v>48</v>
+      </c>
+      <c r="F69" s="30">
+        <f t="shared" si="3"/>
+        <v>560</v>
       </c>
       <c r="G69" s="9">
         <v>376</v>
@@ -7722,24 +7753,24 @@
         <v>21</v>
       </c>
       <c r="I69" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J69" s="24">
         <v>1200</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="27">
         <v>8</v>
       </c>
-      <c r="L69" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M69" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="9" customFormat="1">
+      <c r="L69" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>76</v>
       </c>
@@ -7753,11 +7784,11 @@
         <v>28</v>
       </c>
       <c r="E70" s="9">
-        <v>47</v>
-      </c>
-      <c r="F70" s="18">
-        <f t="shared" si="5"/>
-        <v>1330</v>
+        <v>48</v>
+      </c>
+      <c r="F70" s="30">
+        <f t="shared" si="3"/>
+        <v>490</v>
       </c>
       <c r="G70" s="9">
         <v>370</v>
@@ -7766,24 +7797,24 @@
         <v>21</v>
       </c>
       <c r="I70" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J70" s="24">
         <v>1200</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="27">
         <v>8</v>
       </c>
-      <c r="L70" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M70" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="9" customFormat="1">
+      <c r="L70" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
@@ -7797,11 +7828,11 @@
         <v>29</v>
       </c>
       <c r="E71" s="9">
-        <v>47</v>
-      </c>
-      <c r="F71" s="18">
-        <f t="shared" si="5"/>
-        <v>1260</v>
+        <v>48</v>
+      </c>
+      <c r="F71" s="30">
+        <f t="shared" si="3"/>
+        <v>420</v>
       </c>
       <c r="G71" s="9">
         <v>360</v>
@@ -7810,24 +7841,24 @@
         <v>21</v>
       </c>
       <c r="I71" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J71" s="24">
         <v>1200</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="27">
         <v>8</v>
       </c>
-      <c r="L71" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M71" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="9" customFormat="1">
+      <c r="L71" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>76</v>
       </c>
@@ -7841,11 +7872,11 @@
         <v>30</v>
       </c>
       <c r="E72" s="9">
-        <v>47</v>
-      </c>
-      <c r="F72" s="18">
-        <f t="shared" si="5"/>
-        <v>1190</v>
+        <v>48</v>
+      </c>
+      <c r="F72" s="30">
+        <f t="shared" si="3"/>
+        <v>350</v>
       </c>
       <c r="G72" s="9">
         <v>373</v>
@@ -7854,24 +7885,24 @@
         <v>21</v>
       </c>
       <c r="I72" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J72" s="24">
         <v>1200</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="27">
         <v>8</v>
       </c>
-      <c r="L72" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M72" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="L72" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
@@ -7885,11 +7916,11 @@
         <v>31</v>
       </c>
       <c r="E73" s="9">
-        <v>47</v>
-      </c>
-      <c r="F73" s="18">
-        <f t="shared" si="5"/>
-        <v>1120</v>
+        <v>48</v>
+      </c>
+      <c r="F73" s="30">
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="G73">
         <v>372</v>
@@ -7898,24 +7929,24 @@
         <v>21</v>
       </c>
       <c r="I73" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J73" s="24">
         <v>1200</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="27">
         <v>8</v>
       </c>
-      <c r="L73" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M73" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="L73" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>76</v>
       </c>
@@ -7929,11 +7960,11 @@
         <v>32</v>
       </c>
       <c r="E74" s="9">
-        <v>47</v>
-      </c>
-      <c r="F74" s="18">
-        <f t="shared" si="5"/>
-        <v>1050</v>
+        <v>48</v>
+      </c>
+      <c r="F74" s="30">
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="G74">
         <v>381</v>
@@ -7942,24 +7973,24 @@
         <v>21</v>
       </c>
       <c r="I74" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J74" s="24">
         <v>1200</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="27">
         <v>8</v>
       </c>
-      <c r="L74" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M74" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="L74" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>76</v>
       </c>
@@ -7973,11 +8004,11 @@
         <v>33</v>
       </c>
       <c r="E75" s="9">
-        <v>47</v>
-      </c>
-      <c r="F75" s="18">
-        <f t="shared" si="5"/>
-        <v>980</v>
+        <v>48</v>
+      </c>
+      <c r="F75" s="30">
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="G75">
         <v>380</v>
@@ -7986,24 +8017,24 @@
         <v>21</v>
       </c>
       <c r="I75" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J75" s="24">
         <v>1200</v>
       </c>
-      <c r="K75" s="29">
+      <c r="K75" s="27">
         <v>8</v>
       </c>
-      <c r="L75" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M75" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="L75" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>76</v>
       </c>
@@ -8017,11 +8048,11 @@
         <v>34</v>
       </c>
       <c r="E76" s="9">
-        <v>47</v>
-      </c>
-      <c r="F76" s="18">
-        <f t="shared" si="5"/>
-        <v>910</v>
+        <v>48</v>
+      </c>
+      <c r="F76" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="G76">
         <v>375</v>
@@ -8030,24 +8061,24 @@
         <v>21</v>
       </c>
       <c r="I76" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J76" s="24">
         <v>1200</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K76" s="27">
         <v>8</v>
       </c>
-      <c r="L76" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M76" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="9" customFormat="1">
+      <c r="L76" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -8061,11 +8092,11 @@
         <v>35</v>
       </c>
       <c r="E77" s="9">
-        <v>47</v>
-      </c>
-      <c r="F77" s="18">
-        <f t="shared" si="5"/>
-        <v>840</v>
+        <v>48</v>
+      </c>
+      <c r="F77" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G77" s="9">
         <v>381</v>
@@ -8074,24 +8105,24 @@
         <v>21</v>
       </c>
       <c r="I77" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J77" s="24">
         <v>1200</v>
       </c>
-      <c r="K77" s="29">
+      <c r="K77" s="27">
         <v>8</v>
       </c>
-      <c r="L77" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M77" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="9" customFormat="1">
+      <c r="L77" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>76</v>
       </c>
@@ -8105,11 +8136,11 @@
         <v>36</v>
       </c>
       <c r="E78" s="9">
-        <v>47</v>
-      </c>
-      <c r="F78" s="18">
-        <f t="shared" si="5"/>
-        <v>770</v>
+        <v>48</v>
+      </c>
+      <c r="F78" s="30">
+        <f t="shared" si="3"/>
+        <v>-70</v>
       </c>
       <c r="G78" s="9">
         <v>375</v>
@@ -8118,24 +8149,24 @@
         <v>21</v>
       </c>
       <c r="I78" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J78" s="24">
         <v>1200</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K78" s="27">
         <v>8</v>
       </c>
-      <c r="L78" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M78" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="9" customFormat="1">
+      <c r="L78" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>76</v>
       </c>
@@ -8149,11 +8180,11 @@
         <v>37</v>
       </c>
       <c r="E79" s="9">
-        <v>47</v>
-      </c>
-      <c r="F79" s="18">
-        <f t="shared" si="5"/>
-        <v>700</v>
+        <v>48</v>
+      </c>
+      <c r="F79" s="30">
+        <f t="shared" si="3"/>
+        <v>-140</v>
       </c>
       <c r="G79" s="9">
         <v>385</v>
@@ -8162,24 +8193,24 @@
         <v>21</v>
       </c>
       <c r="I79" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J79" s="24">
         <v>1200</v>
       </c>
-      <c r="K79" s="29">
+      <c r="K79" s="27">
         <v>8</v>
       </c>
-      <c r="L79" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M79" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="9" customFormat="1">
+      <c r="L79" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>76</v>
       </c>
@@ -8193,11 +8224,11 @@
         <v>38</v>
       </c>
       <c r="E80" s="9">
-        <v>47</v>
-      </c>
-      <c r="F80" s="18">
-        <f t="shared" si="5"/>
-        <v>630</v>
+        <v>48</v>
+      </c>
+      <c r="F80" s="30">
+        <f t="shared" si="3"/>
+        <v>-210</v>
       </c>
       <c r="G80" s="9">
         <v>388</v>
@@ -8206,24 +8237,24 @@
         <v>21</v>
       </c>
       <c r="I80" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J80" s="24">
         <v>1200</v>
       </c>
-      <c r="K80" s="29">
+      <c r="K80" s="27">
         <v>8</v>
       </c>
-      <c r="L80" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M80" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="9" customFormat="1">
+      <c r="L80" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>76</v>
       </c>
@@ -8237,11 +8268,11 @@
         <v>39</v>
       </c>
       <c r="E81" s="9">
-        <v>47</v>
-      </c>
-      <c r="F81" s="18">
-        <f t="shared" si="5"/>
-        <v>560</v>
+        <v>48</v>
+      </c>
+      <c r="F81" s="30">
+        <f t="shared" si="3"/>
+        <v>-280</v>
       </c>
       <c r="G81" s="9">
         <v>390</v>
@@ -8250,24 +8281,24 @@
         <v>21</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J81" s="24">
         <v>1200</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K81" s="27">
         <v>8</v>
       </c>
-      <c r="L81" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M81" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="L81" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>76</v>
       </c>
@@ -8281,11 +8312,11 @@
         <v>32</v>
       </c>
       <c r="E82" s="9">
-        <v>47</v>
-      </c>
-      <c r="F82" s="18">
-        <f t="shared" si="5"/>
-        <v>1050</v>
+        <v>48</v>
+      </c>
+      <c r="F82" s="30">
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="G82">
         <v>1180</v>
@@ -8294,24 +8325,24 @@
         <v>21</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J82" s="24">
         <v>1200</v>
       </c>
-      <c r="K82" s="29">
+      <c r="K82" s="27">
         <v>8</v>
       </c>
-      <c r="L82" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M82" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="L82" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>76</v>
       </c>
@@ -8325,11 +8356,11 @@
         <v>33</v>
       </c>
       <c r="E83" s="9">
-        <v>47</v>
-      </c>
-      <c r="F83" s="18">
-        <f t="shared" si="5"/>
-        <v>980</v>
+        <v>48</v>
+      </c>
+      <c r="F83" s="30">
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="G83">
         <v>1200</v>
@@ -8338,24 +8369,24 @@
         <v>21</v>
       </c>
       <c r="I83" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J83" s="24">
         <v>1200</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="27">
         <v>8</v>
       </c>
-      <c r="L83" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M83" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="L83" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>76</v>
       </c>
@@ -8369,11 +8400,11 @@
         <v>34</v>
       </c>
       <c r="E84" s="9">
-        <v>47</v>
-      </c>
-      <c r="F84" s="18">
-        <f t="shared" si="5"/>
-        <v>910</v>
+        <v>48</v>
+      </c>
+      <c r="F84" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="G84">
         <v>1200</v>
@@ -8382,24 +8413,24 @@
         <v>21</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J84" s="24">
         <v>1200</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="27">
         <v>8</v>
       </c>
-      <c r="L84" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M84" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="L84" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>76</v>
       </c>
@@ -8413,11 +8444,11 @@
         <v>35</v>
       </c>
       <c r="E85" s="9">
-        <v>47</v>
-      </c>
-      <c r="F85" s="18">
-        <f t="shared" si="5"/>
-        <v>840</v>
+        <v>48</v>
+      </c>
+      <c r="F85" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>1210</v>
@@ -8426,24 +8457,24 @@
         <v>21</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J85" s="24">
         <v>1200</v>
       </c>
-      <c r="K85" s="29">
+      <c r="K85" s="27">
         <v>8</v>
       </c>
-      <c r="L85" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M85" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="L85" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>76</v>
       </c>
@@ -8457,11 +8488,11 @@
         <v>38</v>
       </c>
       <c r="E86" s="9">
-        <v>47</v>
-      </c>
-      <c r="F86" s="18">
-        <f t="shared" si="5"/>
-        <v>630</v>
+        <v>48</v>
+      </c>
+      <c r="F86" s="30">
+        <f t="shared" si="3"/>
+        <v>-210</v>
       </c>
       <c r="G86">
         <v>850</v>
@@ -8470,24 +8501,24 @@
         <v>21</v>
       </c>
       <c r="I86" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J86" s="24">
         <v>1200</v>
       </c>
-      <c r="K86" s="29">
+      <c r="K86" s="27">
         <v>8</v>
       </c>
-      <c r="L86" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M86" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="L86" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>76</v>
       </c>
@@ -8501,11 +8532,11 @@
         <v>39</v>
       </c>
       <c r="E87" s="9">
-        <v>47</v>
-      </c>
-      <c r="F87" s="18">
-        <f t="shared" si="5"/>
-        <v>560</v>
+        <v>48</v>
+      </c>
+      <c r="F87" s="30">
+        <f t="shared" si="3"/>
+        <v>-280</v>
       </c>
       <c r="G87">
         <v>870</v>
@@ -8514,24 +8545,24 @@
         <v>21</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J87" s="24">
         <v>1200</v>
       </c>
-      <c r="K87" s="29">
+      <c r="K87" s="27">
         <v>8</v>
       </c>
-      <c r="L87" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M87" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="L87" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>76</v>
       </c>
@@ -8545,11 +8576,11 @@
         <v>40</v>
       </c>
       <c r="E88" s="9">
-        <v>47</v>
-      </c>
-      <c r="F88" s="18">
-        <f t="shared" si="5"/>
-        <v>490</v>
+        <v>48</v>
+      </c>
+      <c r="F88" s="30">
+        <f t="shared" si="3"/>
+        <v>-350</v>
       </c>
       <c r="G88">
         <v>840</v>
@@ -8558,24 +8589,24 @@
         <v>21</v>
       </c>
       <c r="I88" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J88" s="24">
         <v>1200</v>
       </c>
-      <c r="K88" s="29">
+      <c r="K88" s="27">
         <v>8</v>
       </c>
-      <c r="L88" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M88" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="L88" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>76</v>
       </c>
@@ -8589,11 +8620,11 @@
         <v>41</v>
       </c>
       <c r="E89" s="9">
-        <v>47</v>
-      </c>
-      <c r="F89" s="18">
-        <f t="shared" si="5"/>
-        <v>420</v>
+        <v>48</v>
+      </c>
+      <c r="F89" s="30">
+        <f t="shared" si="3"/>
+        <v>-420</v>
       </c>
       <c r="G89">
         <v>810</v>
@@ -8602,26 +8633,26 @@
         <v>21</v>
       </c>
       <c r="I89" s="24">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="J89" s="24">
         <v>1200</v>
       </c>
-      <c r="K89" s="29">
+      <c r="K89" s="27">
         <v>8</v>
       </c>
-      <c r="L89" s="29">
-        <f t="shared" si="4"/>
-        <v>2730</v>
-      </c>
-      <c r="M89" s="29" t="s">
-        <v>247</v>
+      <c r="L89" s="27">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8632,29 +8663,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8677,25 +8708,25 @@
         <v>83</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8736,10 +8767,10 @@
         <v>1050</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -8756,7 +8787,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F42" si="0">(E3-D3)*70</f>
+        <f t="shared" ref="F3:F41" si="0">(E3-D3)*70</f>
         <v>140</v>
       </c>
       <c r="G3" s="9">
@@ -8766,7 +8797,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="24">
-        <f t="shared" ref="I3:I42" si="1">(E3-H3)*70</f>
+        <f t="shared" ref="I3:I41" si="1">(E3-H3)*70</f>
         <v>770</v>
       </c>
       <c r="J3" s="9">
@@ -8776,14 +8807,14 @@
         <v>14</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L42" si="2">(E3-K3)*70</f>
+        <f t="shared" ref="L3:L41" si="2">(E3-K3)*70</f>
         <v>1050</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8824,10 +8855,10 @@
         <v>1050</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -8868,10 +8899,10 @@
         <v>1050</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8912,10 +8943,10 @@
         <v>1050</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -8956,10 +8987,10 @@
         <v>1050</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9000,10 +9031,10 @@
         <v>1050</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -9044,15 +9075,15 @@
         <v>1050</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -9081,12 +9112,12 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -9115,7 +9146,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -9150,7 +9181,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -9185,7 +9216,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -9220,7 +9251,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -9255,7 +9286,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -9290,7 +9321,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -9325,7 +9356,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>71</v>
       </c>
@@ -9360,7 +9391,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -9395,7 +9426,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -9430,7 +9461,7 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
@@ -9465,7 +9496,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>71</v>
       </c>
@@ -9500,25 +9531,25 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="9">
         <v>29</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>560</v>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>490</v>
       </c>
       <c r="G23">
         <v>1100</v>
@@ -9535,7 +9566,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -9546,17 +9577,17 @@
         <v>10</v>
       </c>
       <c r="D24" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="9">
         <v>29</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="G24">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="H24" s="25">
         <v>10</v>
@@ -9570,7 +9601,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>71</v>
       </c>
@@ -9581,14 +9612,14 @@
         <v>10</v>
       </c>
       <c r="D25" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9">
         <v>29</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="G25">
         <v>1095</v>
@@ -9605,7 +9636,7 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -9615,18 +9646,18 @@
       <c r="C26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="9">
-        <v>24</v>
+      <c r="D26">
+        <v>25</v>
       </c>
       <c r="E26" s="9">
         <v>29</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G26">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="H26" s="25">
         <v>10</v>
@@ -9640,7 +9671,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -9651,17 +9682,17 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="9">
         <v>29</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="G27">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="H27" s="25">
         <v>10</v>
@@ -9675,7 +9706,7 @@
       </c>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>71</v>
       </c>
@@ -9686,17 +9717,17 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="9">
         <v>29</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="G28">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="H28" s="25">
         <v>10</v>
@@ -9710,7 +9741,7 @@
       </c>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>71</v>
       </c>
@@ -9721,17 +9752,17 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="9">
         <v>29</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G29">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="H29" s="25">
         <v>10</v>
@@ -9745,28 +9776,28 @@
       </c>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>10</v>
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="9">
         <v>29</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>-70</v>
       </c>
       <c r="G30">
-        <v>1065</v>
+        <v>681</v>
       </c>
       <c r="H30" s="25">
         <v>10</v>
@@ -9780,7 +9811,7 @@
       </c>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -9791,17 +9822,17 @@
         <v>46</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="9">
         <v>29</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>-140</v>
       </c>
       <c r="G31">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="H31" s="25">
         <v>10</v>
@@ -9815,7 +9846,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
@@ -9826,17 +9857,17 @@
         <v>46</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="9">
         <v>29</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>-140</v>
+        <v>-210</v>
       </c>
       <c r="G32">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="H32" s="25">
         <v>10</v>
@@ -9850,7 +9881,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9861,17 +9892,17 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="9">
         <v>29</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>-210</v>
+        <v>-280</v>
       </c>
       <c r="G33">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="H33" s="25">
         <v>10</v>
@@ -9885,63 +9916,72 @@
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
         <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34" s="9">
-        <v>29</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="0"/>
-        <v>-280</v>
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
       <c r="G34">
-        <v>637</v>
+        <v>744</v>
       </c>
       <c r="H34" s="25">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="1"/>
-        <v>1330</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1110</v>
-      </c>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1015</v>
+      </c>
+      <c r="J34">
+        <v>1130</v>
+      </c>
+      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>231</v>
+      <c r="B35" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>31</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="G35">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="H35" s="25">
         <v>16.5</v>
@@ -9950,10 +9990,10 @@
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="9">
         <v>1130</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="9">
         <v>11</v>
       </c>
       <c r="L35" s="9">
@@ -9961,10 +10001,10 @@
         <v>1400</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>73</v>
       </c>
@@ -9975,17 +10015,17 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="G36">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="H36" s="25">
         <v>16.5</v>
@@ -10005,10 +10045,10 @@
         <v>1400</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
@@ -10019,17 +10059,17 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>31</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="G37">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="H37" s="25">
         <v>16.5</v>
@@ -10049,31 +10089,31 @@
         <v>1400</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" t="s">
         <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>31</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="G38">
-        <v>730</v>
+        <v>418</v>
       </c>
       <c r="H38" s="25">
         <v>16.5</v>
@@ -10093,31 +10133,31 @@
         <v>1400</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>236</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>31</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="G39">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H39" s="25">
         <v>16.5</v>
@@ -10137,31 +10177,31 @@
         <v>1400</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>31</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="G40">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H40" s="25">
         <v>16.5</v>
@@ -10181,31 +10221,31 @@
         <v>1400</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>31</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G41">
         <v>420</v>
-      </c>
-      <c r="G41">
-        <v>414</v>
       </c>
       <c r="H41" s="25">
         <v>16.5</v>
@@ -10225,51 +10265,7 @@
         <v>1400</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>26</v>
-      </c>
-      <c r="E42">
-        <v>31</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="G42">
-        <v>420</v>
-      </c>
-      <c r="H42" s="25">
-        <v>16.5</v>
-      </c>
-      <c r="I42" s="24">
-        <f t="shared" si="1"/>
-        <v>1015</v>
-      </c>
-      <c r="J42" s="9">
-        <v>1130</v>
-      </c>
-      <c r="K42" s="9">
-        <v>11</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -10292,25 +10288,25 @@
       <selection pane="topRight" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="62" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="21" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="52.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="44.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="6" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:44" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
@@ -10327,13 +10323,13 @@
         <v>57</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>59</v>
@@ -10345,13 +10341,13 @@
         <v>60</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" s="8" customFormat="1" ht="62" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="8" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10384,13 +10380,13 @@
         <v>82</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="3" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -10426,13 +10422,13 @@
         <v>87</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="4" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -10468,13 +10464,13 @@
         <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="5" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -10507,13 +10503,13 @@
         <v>94</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="6" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -10537,13 +10533,13 @@
         <v>62</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="62" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -10576,13 +10572,13 @@
         <v>97</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="62" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -10615,13 +10611,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="9" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -10657,13 +10653,13 @@
         <v>104</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="62" customHeight="1">
+    </row>
+    <row r="10" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -10696,13 +10692,13 @@
         <v>87</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="92" customHeight="1">
+    </row>
+    <row r="11" spans="1:44" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -10738,13 +10734,13 @@
         <v>109</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="75" customHeight="1">
+    </row>
+    <row r="12" spans="1:44" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -10777,13 +10773,13 @@
         <v>112</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="62" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -10813,158 +10809,158 @@
         <v>114</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" ht="26.25" customHeight="1">
-      <c r="A14" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="29">
         <v>42108</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="29">
         <v>42167</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" ref="F14:F19" si="2">E14-D14</f>
         <v>59</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>184</v>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="N14" s="20" t="s">
         <v>77</v>
       </c>
       <c r="O14" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="Q14" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="R14" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="S14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="T14" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="U14" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="W14" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="W14" s="20" t="s">
+      <c r="X14" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="Y14" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="Z14" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="AA14" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="AA14" s="20" t="s">
+      <c r="AB14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="AB14" s="20" t="s">
+      <c r="AC14" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AD14" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="AD14" s="20" t="s">
+      <c r="AE14" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AF14" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AF14" s="20" t="s">
+      <c r="AG14" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AH14" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AH14" s="20" t="s">
+      <c r="AI14" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="AI14" s="20" t="s">
+      <c r="AJ14" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AJ14" s="20" t="s">
+      <c r="AK14" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="AK14" s="20" t="s">
+      <c r="AL14" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="20" t="s">
+      <c r="AM14" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AM14" s="20" t="s">
+      <c r="AN14" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="AN14" s="20" t="s">
+      <c r="AO14" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="AO14" s="20" t="s">
+      <c r="AP14" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="AP14" s="20" t="s">
+      <c r="AQ14" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="AQ14" s="20" t="s">
+      <c r="AR14" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AR14" s="20" t="s">
+    </row>
+    <row r="15" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="20" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" ht="30" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="O15" s="20">
         <v>0</v>
@@ -10994,88 +10990,88 @@
         <v>-1</v>
       </c>
       <c r="X15" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y15" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Z15" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE15" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="AF15" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AA15" s="20" t="s">
+      <c r="AG15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK15" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AB15" s="20" t="s">
+      <c r="AL15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM15" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN15" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AC15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD15" s="20" t="s">
+      <c r="AO15" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AP15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR15" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK15" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM15" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN15" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR15" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="30.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -11089,64 +11085,64 @@
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA16" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG16" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AB16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG16" s="20" t="s">
+      <c r="AH16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM16" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN16" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO16" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP16" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AH16" s="20" t="s">
+      <c r="AQ16" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AI16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM16" s="20" t="s">
+      <c r="AR16" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AN16" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR16" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="81" customHeight="1">
+    </row>
+    <row r="17" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -11170,13 +11166,13 @@
         <v>64</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="62" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -11200,13 +11196,13 @@
         <v>75</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="62" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -11230,10 +11226,10 @@
         <v>75</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="28275" windowHeight="16455"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="28275" windowHeight="16455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PVcre" sheetId="2" r:id="rId1"/>
     <sheet name="GIN" sheetId="1" r:id="rId2"/>
     <sheet name="SOMcre" sheetId="5" r:id="rId3"/>
     <sheet name="Experiment Notes" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="263">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -795,6 +796,30 @@
   </si>
   <si>
     <t>layered_cellFillData_p5s2crop251pt19_ch</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s3_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s3_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s4_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s5_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s6_AL_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s4_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s5_PM_cropped.mat</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_CH_150612_D_p5s6_PM_cropped.mat</t>
   </si>
 </sst>
 </file>
@@ -948,17 +973,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1257,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,97 +1673,97 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>31</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>38</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>404</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="29">
         <v>17</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <v>1190</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="32">
         <v>14</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="32">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="29" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <v>31</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <v>38</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <v>1180</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="29">
         <v>17</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="31">
         <v>1190</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>14</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="32">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="29" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3120,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -3164,7 +3189,7 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -3208,7 +3233,7 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -3252,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -4883,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="18">
-        <f t="shared" ref="F4:F67" si="2">(E4-D4) * 70</f>
+        <f t="shared" ref="F4:F57" si="2">(E4-D4) * 70</f>
         <v>840</v>
       </c>
       <c r="G4" s="9">
@@ -7258,7 +7283,7 @@
       <c r="E58" s="9">
         <v>48</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="28">
         <f>(E58-(D58+13))* 70</f>
         <v>700</v>
       </c>
@@ -7302,7 +7327,7 @@
       <c r="E59" s="9">
         <v>48</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="28">
         <f t="shared" ref="F59:F89" si="3">(E59-(D59+13))* 70</f>
         <v>630</v>
       </c>
@@ -7346,7 +7371,7 @@
       <c r="E60" s="9">
         <v>48</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="28">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
@@ -7390,7 +7415,7 @@
       <c r="E61" s="9">
         <v>48</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="28">
         <f t="shared" si="3"/>
         <v>490</v>
       </c>
@@ -7434,7 +7459,7 @@
       <c r="E62" s="9">
         <v>48</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="28">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
@@ -7478,7 +7503,7 @@
       <c r="E63" s="9">
         <v>48</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="28">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
@@ -7522,7 +7547,7 @@
       <c r="E64" s="9">
         <v>48</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="28">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
@@ -7566,7 +7591,7 @@
       <c r="E65" s="9">
         <v>48</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="28">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -7610,7 +7635,7 @@
       <c r="E66" s="9">
         <v>48</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="28">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
@@ -7654,7 +7679,7 @@
       <c r="E67" s="9">
         <v>48</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -7698,7 +7723,7 @@
       <c r="E68" s="9">
         <v>48</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7742,7 +7767,7 @@
       <c r="E69" s="9">
         <v>48</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="28">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
@@ -7786,7 +7811,7 @@
       <c r="E70" s="9">
         <v>48</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="28">
         <f t="shared" si="3"/>
         <v>490</v>
       </c>
@@ -7830,7 +7855,7 @@
       <c r="E71" s="9">
         <v>48</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="28">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
@@ -7874,7 +7899,7 @@
       <c r="E72" s="9">
         <v>48</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="28">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
@@ -7918,7 +7943,7 @@
       <c r="E73" s="9">
         <v>48</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="28">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
@@ -7962,7 +7987,7 @@
       <c r="E74" s="9">
         <v>48</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="28">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -8006,7 +8031,7 @@
       <c r="E75" s="9">
         <v>48</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="28">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
@@ -8050,7 +8075,7 @@
       <c r="E76" s="9">
         <v>48</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -8094,7 +8119,7 @@
       <c r="E77" s="9">
         <v>48</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8138,7 +8163,7 @@
       <c r="E78" s="9">
         <v>48</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="28">
         <f t="shared" si="3"/>
         <v>-70</v>
       </c>
@@ -8182,7 +8207,7 @@
       <c r="E79" s="9">
         <v>48</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="28">
         <f t="shared" si="3"/>
         <v>-140</v>
       </c>
@@ -8226,7 +8251,7 @@
       <c r="E80" s="9">
         <v>48</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="28">
         <f t="shared" si="3"/>
         <v>-210</v>
       </c>
@@ -8270,7 +8295,7 @@
       <c r="E81" s="9">
         <v>48</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="28">
         <f t="shared" si="3"/>
         <v>-280</v>
       </c>
@@ -8314,7 +8339,7 @@
       <c r="E82" s="9">
         <v>48</v>
       </c>
-      <c r="F82" s="30">
+      <c r="F82" s="28">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -8358,7 +8383,7 @@
       <c r="E83" s="9">
         <v>48</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="28">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
@@ -8402,7 +8427,7 @@
       <c r="E84" s="9">
         <v>48</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="28">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -8446,7 +8471,7 @@
       <c r="E85" s="9">
         <v>48</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8490,7 +8515,7 @@
       <c r="E86" s="9">
         <v>48</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="28">
         <f t="shared" si="3"/>
         <v>-210</v>
       </c>
@@ -8534,7 +8559,7 @@
       <c r="E87" s="9">
         <v>48</v>
       </c>
-      <c r="F87" s="30">
+      <c r="F87" s="28">
         <f t="shared" si="3"/>
         <v>-280</v>
       </c>
@@ -8578,7 +8603,7 @@
       <c r="E88" s="9">
         <v>48</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="28">
         <f t="shared" si="3"/>
         <v>-350</v>
       </c>
@@ -8622,7 +8647,7 @@
       <c r="E89" s="9">
         <v>48</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="28">
         <f t="shared" si="3"/>
         <v>-420</v>
       </c>
@@ -8663,16 +8688,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
@@ -10267,6 +10292,33 @@
       <c r="M41" s="9" t="s">
         <v>250</v>
       </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10816,36 +10868,36 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="34">
         <v>42108</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="34">
         <v>42167</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" ref="F14:F19" si="2">E14-D14</f>
         <v>59</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="33" t="s">
         <v>183</v>
       </c>
       <c r="N14" s="20" t="s">
@@ -10943,22 +10995,22 @@
       </c>
     </row>
     <row r="15" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="20" t="s">
         <v>219</v>
       </c>
@@ -11054,22 +11106,22 @@
       </c>
     </row>
     <row r="16" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="20" t="s">
         <v>223</v>
       </c>
@@ -11255,4 +11307,111 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Other_workbooks/Interneuron_density_analysis.xlsx
+++ b/Other_workbooks/Interneuron_density_analysis.xlsx
@@ -918,7 +918,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -982,6 +982,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1282,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -4739,9 +4742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8690,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10335,9 +10338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H14" sqref="H14:H16"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10883,7 +10886,7 @@
       <c r="E14" s="34">
         <v>42167</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="35">
         <f t="shared" ref="F14:F19" si="2">E14-D14</f>
         <v>59</v>
       </c>
@@ -11000,10 +11003,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F15" s="35"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
@@ -11111,10 +11111,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F16" s="35"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
@@ -11285,7 +11282,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -11298,6 +11295,7 @@
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="L14:L16"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
